--- a/raw_data/20200818_saline/20200818_Sensor3_Test_66.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor3_Test_66.xlsx
@@ -1,1566 +1,1982 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49593782-157C-47B2-9192-738752309FF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>59058.068494</v>
+        <v>59058.068493999999</v>
       </c>
       <c r="B2" s="1">
-        <v>16.405019</v>
+        <v>16.405018999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>1149.940000</v>
+        <v>1149.94</v>
       </c>
       <c r="D2" s="1">
-        <v>-253.978000</v>
+        <v>-253.97800000000001</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>59068.774130</v>
+        <v>59068.774129999998</v>
       </c>
       <c r="G2" s="1">
-        <v>16.407993</v>
+        <v>16.407993000000001</v>
       </c>
       <c r="H2" s="1">
-        <v>1170.310000</v>
+        <v>1170.31</v>
       </c>
       <c r="I2" s="1">
-        <v>-211.768000</v>
+        <v>-211.768</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>59079.227317</v>
+        <v>59079.227316999997</v>
       </c>
       <c r="L2" s="1">
-        <v>16.410896</v>
+        <v>16.410896000000001</v>
       </c>
       <c r="M2" s="1">
-        <v>1195.820000</v>
+        <v>1195.82</v>
       </c>
       <c r="N2" s="1">
-        <v>-147.853000</v>
+        <v>-147.85300000000001</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
         <v>59089.477175</v>
       </c>
       <c r="Q2" s="1">
-        <v>16.413744</v>
+        <v>16.413744000000001</v>
       </c>
       <c r="R2" s="1">
-        <v>1202.780000</v>
+        <v>1202.78</v>
       </c>
       <c r="S2" s="1">
-        <v>-126.763000</v>
+        <v>-126.76300000000001</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>59100.061272</v>
+        <v>59100.061271999999</v>
       </c>
       <c r="V2" s="1">
         <v>16.416684</v>
       </c>
       <c r="W2" s="1">
-        <v>1210.040000</v>
+        <v>1210.04</v>
       </c>
       <c r="X2" s="1">
-        <v>-106.915000</v>
+        <v>-106.91500000000001</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>59110.492675</v>
+        <v>59110.492675000001</v>
       </c>
       <c r="AA2" s="1">
-        <v>16.419581</v>
+        <v>16.419581000000001</v>
       </c>
       <c r="AB2" s="1">
-        <v>1217.340000</v>
+        <v>1217.3399999999999</v>
       </c>
       <c r="AC2" s="1">
-        <v>-90.305800</v>
+        <v>-90.305800000000005</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>59121.075311</v>
+        <v>59121.075311000001</v>
       </c>
       <c r="AF2" s="1">
         <v>16.422521</v>
       </c>
       <c r="AG2" s="1">
-        <v>1222.170000</v>
+        <v>1222.17</v>
       </c>
       <c r="AH2" s="1">
-        <v>-86.087500</v>
+        <v>-86.087500000000006</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
         <v>59131.532431</v>
       </c>
       <c r="AK2" s="1">
-        <v>16.425426</v>
+        <v>16.425426000000002</v>
       </c>
       <c r="AL2" s="1">
-        <v>1229.260000</v>
+        <v>1229.26</v>
       </c>
       <c r="AM2" s="1">
-        <v>-89.773800</v>
+        <v>-89.773799999999994</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>59142.436014</v>
+        <v>59142.436013999999</v>
       </c>
       <c r="AP2" s="1">
-        <v>16.428454</v>
+        <v>16.428453999999999</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1237.330000</v>
+        <v>1237.33</v>
       </c>
       <c r="AR2" s="1">
-        <v>-101.855000</v>
+        <v>-101.855</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>59153.472009</v>
+        <v>59153.472008999997</v>
       </c>
       <c r="AU2" s="1">
-        <v>16.431520</v>
+        <v>16.431519999999999</v>
       </c>
       <c r="AV2" s="1">
-        <v>1247.480000</v>
+        <v>1247.48</v>
       </c>
       <c r="AW2" s="1">
-        <v>-121.396000</v>
+        <v>-121.396</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>59164.525316</v>
+        <v>59164.525315999999</v>
       </c>
       <c r="AZ2" s="1">
-        <v>16.434590</v>
+        <v>16.43459</v>
       </c>
       <c r="BA2" s="1">
-        <v>1256.040000</v>
+        <v>1256.04</v>
       </c>
       <c r="BB2" s="1">
-        <v>-139.062000</v>
+        <v>-139.06200000000001</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>59175.466565</v>
+        <v>59175.466565000002</v>
       </c>
       <c r="BE2" s="1">
-        <v>16.437630</v>
+        <v>16.437629999999999</v>
       </c>
       <c r="BF2" s="1">
-        <v>1296.850000</v>
+        <v>1296.8499999999999</v>
       </c>
       <c r="BG2" s="1">
-        <v>-221.248000</v>
+        <v>-221.24799999999999</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>59186.774855</v>
+        <v>59186.774855000003</v>
       </c>
       <c r="BJ2" s="1">
-        <v>16.440771</v>
+        <v>16.440771000000002</v>
       </c>
       <c r="BK2" s="1">
-        <v>1367.510000</v>
+        <v>1367.51</v>
       </c>
       <c r="BL2" s="1">
-        <v>-357.448000</v>
+        <v>-357.44799999999998</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>59198.270136</v>
+        <v>59198.270135999999</v>
       </c>
       <c r="BO2" s="1">
-        <v>16.443964</v>
+        <v>16.443964000000001</v>
       </c>
       <c r="BP2" s="1">
-        <v>1483.180000</v>
+        <v>1483.18</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-578.501000</v>
+        <v>-578.50099999999998</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>59209.896391</v>
+        <v>59209.896391000002</v>
       </c>
       <c r="BT2" s="1">
-        <v>16.447193</v>
+        <v>16.447192999999999</v>
       </c>
       <c r="BU2" s="1">
-        <v>1617.030000</v>
+        <v>1617.03</v>
       </c>
       <c r="BV2" s="1">
-        <v>-827.536000</v>
+        <v>-827.53599999999994</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>59221.049898</v>
+        <v>59221.049897999997</v>
       </c>
       <c r="BY2" s="1">
-        <v>16.450292</v>
+        <v>16.450292000000001</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1770.050000</v>
+        <v>1770.05</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1097.100000</v>
+        <v>-1097.0999999999999</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>59232.024378</v>
+        <v>59232.024378000002</v>
       </c>
       <c r="CD2" s="1">
-        <v>16.453340</v>
+        <v>16.453340000000001</v>
       </c>
       <c r="CE2" s="1">
-        <v>2189.410000</v>
+        <v>2189.41</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1747.820000</v>
+        <v>-1747.82</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>59058.502226</v>
+        <v>59058.502225999997</v>
       </c>
       <c r="B3" s="1">
-        <v>16.405140</v>
+        <v>16.405139999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>1150.080000</v>
+        <v>1150.08</v>
       </c>
       <c r="D3" s="1">
-        <v>-254.027000</v>
+        <v>-254.02699999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>59069.185349</v>
+        <v>59069.185348999999</v>
       </c>
       <c r="G3" s="1">
-        <v>16.408107</v>
+        <v>16.408107000000001</v>
       </c>
       <c r="H3" s="1">
-        <v>1170.590000</v>
+        <v>1170.5899999999999</v>
       </c>
       <c r="I3" s="1">
-        <v>-212.352000</v>
+        <v>-212.352</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>59079.336933</v>
+        <v>59079.336932999999</v>
       </c>
       <c r="L3" s="1">
-        <v>16.410927</v>
+        <v>16.410927000000001</v>
       </c>
       <c r="M3" s="1">
-        <v>1195.990000</v>
+        <v>1195.99</v>
       </c>
       <c r="N3" s="1">
-        <v>-147.750000</v>
+        <v>-147.75</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>59089.867494</v>
+        <v>59089.867493999998</v>
       </c>
       <c r="Q3" s="1">
-        <v>16.413852</v>
+        <v>16.413851999999999</v>
       </c>
       <c r="R3" s="1">
-        <v>1202.840000</v>
+        <v>1202.8399999999999</v>
       </c>
       <c r="S3" s="1">
-        <v>-126.835000</v>
+        <v>-126.83499999999999</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>59100.427817</v>
+        <v>59100.427817000003</v>
       </c>
       <c r="V3" s="1">
-        <v>16.416786</v>
+        <v>16.416785999999998</v>
       </c>
       <c r="W3" s="1">
-        <v>1209.930000</v>
+        <v>1209.93</v>
       </c>
       <c r="X3" s="1">
-        <v>-106.869000</v>
+        <v>-106.869</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>59110.879516</v>
+        <v>59110.879516000001</v>
       </c>
       <c r="AA3" s="1">
-        <v>16.419689</v>
+        <v>16.419689000000002</v>
       </c>
       <c r="AB3" s="1">
-        <v>1217.410000</v>
+        <v>1217.4100000000001</v>
       </c>
       <c r="AC3" s="1">
-        <v>-90.352400</v>
+        <v>-90.352400000000003</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>59121.788060</v>
+        <v>59121.788059999999</v>
       </c>
       <c r="AF3" s="1">
-        <v>16.422719</v>
+        <v>16.422719000000001</v>
       </c>
       <c r="AG3" s="1">
-        <v>1222.230000</v>
+        <v>1222.23</v>
       </c>
       <c r="AH3" s="1">
-        <v>-86.075600</v>
+        <v>-86.075599999999994</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>59132.264527</v>
+        <v>59132.264526999999</v>
       </c>
       <c r="AK3" s="1">
-        <v>16.425629</v>
+        <v>16.425629000000001</v>
       </c>
       <c r="AL3" s="1">
-        <v>1229.230000</v>
+        <v>1229.23</v>
       </c>
       <c r="AM3" s="1">
-        <v>-89.785700</v>
+        <v>-89.785700000000006</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>59142.832784</v>
+        <v>59142.832783999998</v>
       </c>
       <c r="AP3" s="1">
-        <v>16.428565</v>
+        <v>16.428564999999999</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1237.310000</v>
+        <v>1237.31</v>
       </c>
       <c r="AR3" s="1">
-        <v>-101.827000</v>
+        <v>-101.827</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>59153.840993</v>
+        <v>59153.840992999998</v>
       </c>
       <c r="AU3" s="1">
-        <v>16.431622</v>
+        <v>16.431622000000001</v>
       </c>
       <c r="AV3" s="1">
-        <v>1247.480000</v>
+        <v>1247.48</v>
       </c>
       <c r="AW3" s="1">
-        <v>-121.429000</v>
+        <v>-121.429</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>59164.899299</v>
+        <v>59164.899298999997</v>
       </c>
       <c r="AZ3" s="1">
         <v>16.434694</v>
       </c>
       <c r="BA3" s="1">
-        <v>1256.030000</v>
+        <v>1256.03</v>
       </c>
       <c r="BB3" s="1">
-        <v>-139.017000</v>
+        <v>-139.017</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>59176.149060</v>
+        <v>59176.149060000003</v>
       </c>
       <c r="BE3" s="1">
-        <v>16.437819</v>
+        <v>16.437819000000001</v>
       </c>
       <c r="BF3" s="1">
-        <v>1296.850000</v>
+        <v>1296.8499999999999</v>
       </c>
       <c r="BG3" s="1">
-        <v>-221.265000</v>
+        <v>-221.26499999999999</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>59187.231175</v>
+        <v>59187.231175000001</v>
       </c>
       <c r="BJ3" s="1">
-        <v>16.440898</v>
+        <v>16.440898000000001</v>
       </c>
       <c r="BK3" s="1">
-        <v>1367.400000</v>
+        <v>1367.4</v>
       </c>
       <c r="BL3" s="1">
-        <v>-357.505000</v>
+        <v>-357.505</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
         <v>59198.723478</v>
       </c>
       <c r="BO3" s="1">
-        <v>16.444090</v>
+        <v>16.444089999999999</v>
       </c>
       <c r="BP3" s="1">
-        <v>1483.160000</v>
+        <v>1483.16</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-578.563000</v>
+        <v>-578.56299999999999</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>59210.335356</v>
+        <v>59210.335356000003</v>
       </c>
       <c r="BT3" s="1">
         <v>16.447315</v>
       </c>
       <c r="BU3" s="1">
-        <v>1617.060000</v>
+        <v>1617.06</v>
       </c>
       <c r="BV3" s="1">
-        <v>-827.536000</v>
+        <v>-827.53599999999994</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>59221.533992</v>
+        <v>59221.533991999997</v>
       </c>
       <c r="BY3" s="1">
         <v>16.450426</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1770.310000</v>
+        <v>1770.31</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1097.130000</v>
+        <v>-1097.1300000000001</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>59232.574473</v>
+        <v>59232.574473000001</v>
       </c>
       <c r="CD3" s="1">
-        <v>16.453493</v>
+        <v>16.453493000000002</v>
       </c>
       <c r="CE3" s="1">
-        <v>2191.500000</v>
+        <v>2191.5</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1748.230000</v>
+        <v>-1748.23</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>59058.773295</v>
+        <v>59058.773294999999</v>
       </c>
       <c r="B4" s="1">
-        <v>16.405215</v>
+        <v>16.405214999999998</v>
       </c>
       <c r="C4" s="1">
-        <v>1150.330000</v>
+        <v>1150.33</v>
       </c>
       <c r="D4" s="1">
-        <v>-253.856000</v>
+        <v>-253.85599999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>59069.532052</v>
+        <v>59069.532052000002</v>
       </c>
       <c r="G4" s="1">
         <v>16.408203</v>
       </c>
       <c r="H4" s="1">
-        <v>1170.530000</v>
+        <v>1170.53</v>
       </c>
       <c r="I4" s="1">
-        <v>-212.644000</v>
+        <v>-212.64400000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>59079.681156</v>
+        <v>59079.681155999999</v>
       </c>
       <c r="L4" s="1">
         <v>16.411023</v>
       </c>
       <c r="M4" s="1">
-        <v>1195.830000</v>
+        <v>1195.83</v>
       </c>
       <c r="N4" s="1">
-        <v>-147.786000</v>
+        <v>-147.786</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>59090.214230</v>
+        <v>59090.214229999998</v>
       </c>
       <c r="Q4" s="1">
-        <v>16.413948</v>
+        <v>16.413948000000001</v>
       </c>
       <c r="R4" s="1">
-        <v>1202.860000</v>
+        <v>1202.8599999999999</v>
       </c>
       <c r="S4" s="1">
-        <v>-126.888000</v>
+        <v>-126.88800000000001</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>59101.113784</v>
+        <v>59101.113784000001</v>
       </c>
       <c r="V4" s="1">
-        <v>16.416976</v>
+        <v>16.416975999999998</v>
       </c>
       <c r="W4" s="1">
-        <v>1209.800000</v>
+        <v>1209.8</v>
       </c>
       <c r="X4" s="1">
-        <v>-106.808000</v>
+        <v>-106.80800000000001</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>59111.576425</v>
+        <v>59111.576424999999</v>
       </c>
       <c r="AA4" s="1">
-        <v>16.419882</v>
+        <v>16.419882000000001</v>
       </c>
       <c r="AB4" s="1">
-        <v>1217.410000</v>
+        <v>1217.4100000000001</v>
       </c>
       <c r="AC4" s="1">
-        <v>-90.274100</v>
+        <v>-90.274100000000004</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>59122.131757</v>
+        <v>59122.131757000003</v>
       </c>
       <c r="AF4" s="1">
-        <v>16.422814</v>
+        <v>16.422813999999999</v>
       </c>
       <c r="AG4" s="1">
-        <v>1222.210000</v>
+        <v>1222.21</v>
       </c>
       <c r="AH4" s="1">
-        <v>-85.992900</v>
+        <v>-85.992900000000006</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>59132.694061</v>
+        <v>59132.694061000002</v>
       </c>
       <c r="AK4" s="1">
-        <v>16.425748</v>
+        <v>16.425747999999999</v>
       </c>
       <c r="AL4" s="1">
-        <v>1229.260000</v>
+        <v>1229.26</v>
       </c>
       <c r="AM4" s="1">
-        <v>-89.769900</v>
+        <v>-89.769900000000007</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>59143.210834</v>
+        <v>59143.210833999998</v>
       </c>
       <c r="AP4" s="1">
-        <v>16.428670</v>
+        <v>16.42867</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1237.350000</v>
+        <v>1237.3499999999999</v>
       </c>
       <c r="AR4" s="1">
-        <v>-101.817000</v>
+        <v>-101.81699999999999</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>59154.519024</v>
+        <v>59154.519024000001</v>
       </c>
       <c r="AU4" s="1">
         <v>16.431811</v>
       </c>
       <c r="AV4" s="1">
-        <v>1247.470000</v>
+        <v>1247.47</v>
       </c>
       <c r="AW4" s="1">
-        <v>-121.435000</v>
+        <v>-121.435</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>59165.556003</v>
+        <v>59165.556002999998</v>
       </c>
       <c r="AZ4" s="1">
         <v>16.434877</v>
       </c>
       <c r="BA4" s="1">
-        <v>1256.030000</v>
+        <v>1256.03</v>
       </c>
       <c r="BB4" s="1">
-        <v>-139.029000</v>
+        <v>-139.029</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>59176.564707</v>
+        <v>59176.564706999998</v>
       </c>
       <c r="BE4" s="1">
         <v>16.437935</v>
       </c>
       <c r="BF4" s="1">
-        <v>1296.850000</v>
+        <v>1296.8499999999999</v>
       </c>
       <c r="BG4" s="1">
-        <v>-221.265000</v>
+        <v>-221.26499999999999</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>59187.629004</v>
+        <v>59187.629004000002</v>
       </c>
       <c r="BJ4" s="1">
         <v>16.441008</v>
       </c>
       <c r="BK4" s="1">
-        <v>1367.450000</v>
+        <v>1367.45</v>
       </c>
       <c r="BL4" s="1">
-        <v>-357.487000</v>
+        <v>-357.48700000000002</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>59199.148054</v>
+        <v>59199.148053999998</v>
       </c>
       <c r="BO4" s="1">
         <v>16.444208</v>
       </c>
       <c r="BP4" s="1">
-        <v>1483.160000</v>
+        <v>1483.16</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-578.557000</v>
+        <v>-578.55700000000002</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>59210.772295</v>
+        <v>59210.772295000002</v>
       </c>
       <c r="BT4" s="1">
-        <v>16.447437</v>
+        <v>16.447437000000001</v>
       </c>
       <c r="BU4" s="1">
-        <v>1616.970000</v>
+        <v>1616.97</v>
       </c>
       <c r="BV4" s="1">
-        <v>-827.589000</v>
+        <v>-827.58900000000006</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
         <v>59221.981881</v>
       </c>
       <c r="BY4" s="1">
-        <v>16.450551</v>
+        <v>16.450551000000001</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1770.150000</v>
+        <v>1770.15</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1096.980000</v>
+        <v>-1096.98</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>59233.090778</v>
+        <v>59233.090777999998</v>
       </c>
       <c r="CD4" s="1">
-        <v>16.453636</v>
+        <v>16.453635999999999</v>
       </c>
       <c r="CE4" s="1">
-        <v>2191.510000</v>
+        <v>2191.5100000000002</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1746.520000</v>
+        <v>-1746.52</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>59059.115085</v>
+        <v>59059.115084999998</v>
       </c>
       <c r="B5" s="1">
-        <v>16.405310</v>
+        <v>16.40531</v>
       </c>
       <c r="C5" s="1">
-        <v>1150.150000</v>
+        <v>1150.1500000000001</v>
       </c>
       <c r="D5" s="1">
-        <v>-253.808000</v>
+        <v>-253.80799999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
         <v>59069.878224</v>
       </c>
       <c r="G5" s="1">
-        <v>16.408300</v>
+        <v>16.408300000000001</v>
       </c>
       <c r="H5" s="1">
-        <v>1170.970000</v>
+        <v>1170.97</v>
       </c>
       <c r="I5" s="1">
-        <v>-212.968000</v>
+        <v>-212.96799999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>59080.027363</v>
+        <v>59080.027363000001</v>
       </c>
       <c r="L5" s="1">
-        <v>16.411119</v>
+        <v>16.411118999999999</v>
       </c>
       <c r="M5" s="1">
-        <v>1195.950000</v>
+        <v>1195.95</v>
       </c>
       <c r="N5" s="1">
-        <v>-147.835000</v>
+        <v>-147.83500000000001</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>59090.911109</v>
+        <v>59090.911109000001</v>
       </c>
       <c r="Q5" s="1">
-        <v>16.414142</v>
+        <v>16.414141999999998</v>
       </c>
       <c r="R5" s="1">
-        <v>1202.800000</v>
+        <v>1202.8</v>
       </c>
       <c r="S5" s="1">
-        <v>-126.924000</v>
+        <v>-126.92400000000001</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>59101.456063</v>
+        <v>59101.456062999998</v>
       </c>
       <c r="V5" s="1">
         <v>16.417071</v>
       </c>
       <c r="W5" s="1">
-        <v>1209.880000</v>
+        <v>1209.8800000000001</v>
       </c>
       <c r="X5" s="1">
-        <v>-106.827000</v>
+        <v>-106.827</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
         <v>59111.926109</v>
       </c>
       <c r="AA5" s="1">
-        <v>16.419979</v>
+        <v>16.419979000000001</v>
       </c>
       <c r="AB5" s="1">
-        <v>1217.460000</v>
+        <v>1217.46</v>
       </c>
       <c r="AC5" s="1">
-        <v>-90.334700</v>
+        <v>-90.334699999999998</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>59122.474987</v>
+        <v>59122.474987000001</v>
       </c>
       <c r="AF5" s="1">
-        <v>16.422910</v>
+        <v>16.422910000000002</v>
       </c>
       <c r="AG5" s="1">
-        <v>1222.030000</v>
+        <v>1222.03</v>
       </c>
       <c r="AH5" s="1">
-        <v>-86.187900</v>
+        <v>-86.187899999999999</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
         <v>59133.281356</v>
       </c>
       <c r="AK5" s="1">
-        <v>16.425911</v>
+        <v>16.425910999999999</v>
       </c>
       <c r="AL5" s="1">
-        <v>1229.260000</v>
+        <v>1229.26</v>
       </c>
       <c r="AM5" s="1">
-        <v>-89.788600</v>
+        <v>-89.788600000000002</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>59143.882320</v>
+        <v>59143.882319999997</v>
       </c>
       <c r="AP5" s="1">
         <v>16.428856</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1237.350000</v>
+        <v>1237.3499999999999</v>
       </c>
       <c r="AR5" s="1">
-        <v>-101.824000</v>
+        <v>-101.824</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
         <v>59154.959724</v>
       </c>
       <c r="AU5" s="1">
-        <v>16.431933</v>
+        <v>16.431933000000001</v>
       </c>
       <c r="AV5" s="1">
-        <v>1247.480000</v>
+        <v>1247.48</v>
       </c>
       <c r="AW5" s="1">
-        <v>-121.436000</v>
+        <v>-121.43600000000001</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>59166.001905</v>
+        <v>59166.001904999997</v>
       </c>
       <c r="AZ5" s="1">
         <v>16.435001</v>
       </c>
       <c r="BA5" s="1">
-        <v>1256.030000</v>
+        <v>1256.03</v>
       </c>
       <c r="BB5" s="1">
-        <v>-139.058000</v>
+        <v>-139.05799999999999</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>59176.949108</v>
+        <v>59176.949108000001</v>
       </c>
       <c r="BE5" s="1">
-        <v>16.438041</v>
+        <v>16.438040999999998</v>
       </c>
       <c r="BF5" s="1">
-        <v>1296.850000</v>
+        <v>1296.8499999999999</v>
       </c>
       <c r="BG5" s="1">
-        <v>-221.294000</v>
+        <v>-221.29400000000001</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>59188.006916</v>
+        <v>59188.006915999998</v>
       </c>
       <c r="BJ5" s="1">
-        <v>16.441113</v>
+        <v>16.441113000000001</v>
       </c>
       <c r="BK5" s="1">
-        <v>1367.460000</v>
+        <v>1367.46</v>
       </c>
       <c r="BL5" s="1">
-        <v>-357.502000</v>
+        <v>-357.50200000000001</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>59199.564229</v>
+        <v>59199.564229000003</v>
       </c>
       <c r="BO5" s="1">
-        <v>16.444323</v>
+        <v>16.444323000000001</v>
       </c>
       <c r="BP5" s="1">
-        <v>1483.130000</v>
+        <v>1483.13</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-578.528000</v>
+        <v>-578.52800000000002</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
         <v>59211.202823</v>
       </c>
       <c r="BT5" s="1">
-        <v>16.447556</v>
+        <v>16.447555999999999</v>
       </c>
       <c r="BU5" s="1">
-        <v>1616.960000</v>
+        <v>1616.96</v>
       </c>
       <c r="BV5" s="1">
-        <v>-827.642000</v>
+        <v>-827.64200000000005</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>59222.440215</v>
+        <v>59222.440215000002</v>
       </c>
       <c r="BY5" s="1">
         <v>16.450678</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1770.200000</v>
+        <v>1770.2</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1097.040000</v>
+        <v>-1097.04</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>59233.611597</v>
+        <v>59233.611597000003</v>
       </c>
       <c r="CD5" s="1">
-        <v>16.453781</v>
+        <v>16.453780999999999</v>
       </c>
       <c r="CE5" s="1">
-        <v>2189.620000</v>
+        <v>2189.62</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1746.290000</v>
+        <v>-1746.29</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>59059.457774</v>
+        <v>59059.457774000002</v>
       </c>
       <c r="B6" s="1">
-        <v>16.405405</v>
+        <v>16.405404999999998</v>
       </c>
       <c r="C6" s="1">
-        <v>1149.670000</v>
+        <v>1149.67</v>
       </c>
       <c r="D6" s="1">
-        <v>-253.866000</v>
+        <v>-253.86600000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>59070.567245</v>
+        <v>59070.567244999998</v>
       </c>
       <c r="G6" s="1">
-        <v>16.408491</v>
+        <v>16.408491000000001</v>
       </c>
       <c r="H6" s="1">
-        <v>1170.070000</v>
+        <v>1170.07</v>
       </c>
       <c r="I6" s="1">
-        <v>-212.249000</v>
+        <v>-212.249</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>59080.719779</v>
+        <v>59080.719778999999</v>
       </c>
       <c r="L6" s="1">
-        <v>16.411311</v>
+        <v>16.411311000000001</v>
       </c>
       <c r="M6" s="1">
-        <v>1195.900000</v>
+        <v>1195.9000000000001</v>
       </c>
       <c r="N6" s="1">
-        <v>-148.011000</v>
+        <v>-148.011</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>59091.262742</v>
+        <v>59091.262741999999</v>
       </c>
       <c r="Q6" s="1">
-        <v>16.414240</v>
+        <v>16.414239999999999</v>
       </c>
       <c r="R6" s="1">
-        <v>1202.780000</v>
+        <v>1202.78</v>
       </c>
       <c r="S6" s="1">
-        <v>-127.002000</v>
+        <v>-127.002</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
         <v>59101.804247</v>
@@ -1569,967 +1985,967 @@
         <v>16.417168</v>
       </c>
       <c r="W6" s="1">
-        <v>1210.040000</v>
+        <v>1210.04</v>
       </c>
       <c r="X6" s="1">
-        <v>-106.723000</v>
+        <v>-106.723</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
         <v>59112.274264</v>
       </c>
       <c r="AA6" s="1">
-        <v>16.420076</v>
+        <v>16.420076000000002</v>
       </c>
       <c r="AB6" s="1">
-        <v>1217.340000</v>
+        <v>1217.3399999999999</v>
       </c>
       <c r="AC6" s="1">
-        <v>-90.379300</v>
+        <v>-90.379300000000001</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>59123.133180</v>
+        <v>59123.133179999997</v>
       </c>
       <c r="AF6" s="1">
-        <v>16.423093</v>
+        <v>16.423093000000001</v>
       </c>
       <c r="AG6" s="1">
-        <v>1222.160000</v>
+        <v>1222.1600000000001</v>
       </c>
       <c r="AH6" s="1">
-        <v>-86.138500</v>
+        <v>-86.138499999999993</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
         <v>59133.663772</v>
       </c>
       <c r="AK6" s="1">
-        <v>16.426018</v>
+        <v>16.426017999999999</v>
       </c>
       <c r="AL6" s="1">
-        <v>1229.250000</v>
+        <v>1229.25</v>
       </c>
       <c r="AM6" s="1">
-        <v>-89.763000</v>
+        <v>-89.763000000000005</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>59144.293503</v>
+        <v>59144.293503000001</v>
       </c>
       <c r="AP6" s="1">
-        <v>16.428970</v>
+        <v>16.42897</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1237.300000</v>
+        <v>1237.3</v>
       </c>
       <c r="AR6" s="1">
-        <v>-101.827000</v>
+        <v>-101.827</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>59155.325055</v>
+        <v>59155.325055000001</v>
       </c>
       <c r="AU6" s="1">
-        <v>16.432035</v>
+        <v>16.432034999999999</v>
       </c>
       <c r="AV6" s="1">
-        <v>1247.460000</v>
+        <v>1247.46</v>
       </c>
       <c r="AW6" s="1">
-        <v>-121.413000</v>
+        <v>-121.413</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>59166.362497</v>
+        <v>59166.362497000002</v>
       </c>
       <c r="AZ6" s="1">
         <v>16.435101</v>
       </c>
       <c r="BA6" s="1">
-        <v>1256.010000</v>
+        <v>1256.01</v>
       </c>
       <c r="BB6" s="1">
-        <v>-139.014000</v>
+        <v>-139.01400000000001</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>59177.315156</v>
+        <v>59177.315155999997</v>
       </c>
       <c r="BE6" s="1">
         <v>16.438143</v>
       </c>
       <c r="BF6" s="1">
-        <v>1296.840000</v>
+        <v>1296.8399999999999</v>
       </c>
       <c r="BG6" s="1">
-        <v>-221.279000</v>
+        <v>-221.279</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>59188.437476</v>
+        <v>59188.437475999999</v>
       </c>
       <c r="BJ6" s="1">
         <v>16.441233</v>
       </c>
       <c r="BK6" s="1">
-        <v>1367.450000</v>
+        <v>1367.45</v>
       </c>
       <c r="BL6" s="1">
-        <v>-357.505000</v>
+        <v>-357.505</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>59199.968438</v>
+        <v>59199.968438000004</v>
       </c>
       <c r="BO6" s="1">
         <v>16.444436</v>
       </c>
       <c r="BP6" s="1">
-        <v>1483.160000</v>
+        <v>1483.16</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-578.576000</v>
+        <v>-578.57600000000002</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>59211.613541</v>
+        <v>59211.613540999999</v>
       </c>
       <c r="BT6" s="1">
-        <v>16.447670</v>
+        <v>16.447669999999999</v>
       </c>
       <c r="BU6" s="1">
-        <v>1616.950000</v>
+        <v>1616.95</v>
       </c>
       <c r="BV6" s="1">
-        <v>-827.581000</v>
+        <v>-827.58100000000002</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>59222.890086</v>
+        <v>59222.890085999999</v>
       </c>
       <c r="BY6" s="1">
-        <v>16.450803</v>
+        <v>16.450803000000001</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1770.180000</v>
+        <v>1770.18</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1097.010000</v>
+        <v>-1097.01</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>59234.128936</v>
+        <v>59234.128936000001</v>
       </c>
       <c r="CD6" s="1">
-        <v>16.453925</v>
+        <v>16.453925000000002</v>
       </c>
       <c r="CE6" s="1">
-        <v>2190.220000</v>
+        <v>2190.2199999999998</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1748.640000</v>
+        <v>-1748.64</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>59060.140269</v>
+        <v>59060.140269000003</v>
       </c>
       <c r="B7" s="1">
-        <v>16.405595</v>
+        <v>16.405595000000002</v>
       </c>
       <c r="C7" s="1">
-        <v>1149.880000</v>
+        <v>1149.8800000000001</v>
       </c>
       <c r="D7" s="1">
-        <v>-253.992000</v>
+        <v>-253.99199999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>59070.910895</v>
+        <v>59070.910895000001</v>
       </c>
       <c r="G7" s="1">
         <v>16.408586</v>
       </c>
       <c r="H7" s="1">
-        <v>1169.520000</v>
+        <v>1169.52</v>
       </c>
       <c r="I7" s="1">
-        <v>-212.797000</v>
+        <v>-212.797</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>59081.067969</v>
+        <v>59081.067969000003</v>
       </c>
       <c r="L7" s="1">
-        <v>16.411408</v>
+        <v>16.411408000000002</v>
       </c>
       <c r="M7" s="1">
-        <v>1195.890000</v>
+        <v>1195.8900000000001</v>
       </c>
       <c r="N7" s="1">
-        <v>-148.013000</v>
+        <v>-148.01300000000001</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>59091.609973</v>
+        <v>59091.609972999999</v>
       </c>
       <c r="Q7" s="1">
-        <v>16.414336</v>
+        <v>16.414335999999999</v>
       </c>
       <c r="R7" s="1">
-        <v>1202.790000</v>
+        <v>1202.79</v>
       </c>
       <c r="S7" s="1">
-        <v>-127.027000</v>
+        <v>-127.027</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>59102.459429</v>
+        <v>59102.459429000002</v>
       </c>
       <c r="V7" s="1">
-        <v>16.417350</v>
+        <v>16.417349999999999</v>
       </c>
       <c r="W7" s="1">
-        <v>1209.990000</v>
+        <v>1209.99</v>
       </c>
       <c r="X7" s="1">
-        <v>-106.880000</v>
+        <v>-106.88</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
         <v>59112.943368</v>
       </c>
       <c r="AA7" s="1">
-        <v>16.420262</v>
+        <v>16.420262000000001</v>
       </c>
       <c r="AB7" s="1">
-        <v>1217.320000</v>
+        <v>1217.32</v>
       </c>
       <c r="AC7" s="1">
-        <v>-90.368600</v>
+        <v>-90.368600000000001</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>59123.508191</v>
+        <v>59123.508191000001</v>
       </c>
       <c r="AF7" s="1">
-        <v>16.423197</v>
+        <v>16.423196999999998</v>
       </c>
       <c r="AG7" s="1">
-        <v>1221.950000</v>
+        <v>1221.95</v>
       </c>
       <c r="AH7" s="1">
-        <v>-86.253100</v>
+        <v>-86.253100000000003</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>59134.011690</v>
+        <v>59134.011689999999</v>
       </c>
       <c r="AK7" s="1">
-        <v>16.426114</v>
+        <v>16.426113999999998</v>
       </c>
       <c r="AL7" s="1">
-        <v>1229.260000</v>
+        <v>1229.26</v>
       </c>
       <c r="AM7" s="1">
-        <v>-89.801600</v>
+        <v>-89.801599999999993</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>59144.684351</v>
+        <v>59144.684351000004</v>
       </c>
       <c r="AP7" s="1">
-        <v>16.429079</v>
+        <v>16.429079000000002</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1237.370000</v>
+        <v>1237.3699999999999</v>
       </c>
       <c r="AR7" s="1">
-        <v>-101.806000</v>
+        <v>-101.806</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>59155.690575</v>
+        <v>59155.690575000001</v>
       </c>
       <c r="AU7" s="1">
         <v>16.432136</v>
       </c>
       <c r="AV7" s="1">
-        <v>1247.490000</v>
+        <v>1247.49</v>
       </c>
       <c r="AW7" s="1">
-        <v>-121.391000</v>
+        <v>-121.39100000000001</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
         <v>59166.794016</v>
       </c>
       <c r="AZ7" s="1">
-        <v>16.435221</v>
+        <v>16.435220999999999</v>
       </c>
       <c r="BA7" s="1">
-        <v>1256.060000</v>
+        <v>1256.06</v>
       </c>
       <c r="BB7" s="1">
-        <v>-139.028000</v>
+        <v>-139.02799999999999</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>59177.732821</v>
+        <v>59177.732820999998</v>
       </c>
       <c r="BE7" s="1">
-        <v>16.438259</v>
+        <v>16.438258999999999</v>
       </c>
       <c r="BF7" s="1">
-        <v>1296.870000</v>
+        <v>1296.8699999999999</v>
       </c>
       <c r="BG7" s="1">
-        <v>-221.234000</v>
+        <v>-221.23400000000001</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>59188.765300</v>
+        <v>59188.765299999999</v>
       </c>
       <c r="BJ7" s="1">
-        <v>16.441324</v>
+        <v>16.441324000000002</v>
       </c>
       <c r="BK7" s="1">
-        <v>1367.460000</v>
+        <v>1367.46</v>
       </c>
       <c r="BL7" s="1">
-        <v>-357.491000</v>
+        <v>-357.49099999999999</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>59200.365237</v>
+        <v>59200.365236999998</v>
       </c>
       <c r="BO7" s="1">
-        <v>16.444546</v>
+        <v>16.444545999999999</v>
       </c>
       <c r="BP7" s="1">
-        <v>1483.130000</v>
+        <v>1483.13</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-578.551000</v>
+        <v>-578.55100000000004</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>59212.044071</v>
+        <v>59212.044070999997</v>
       </c>
       <c r="BT7" s="1">
-        <v>16.447790</v>
+        <v>16.447790000000001</v>
       </c>
       <c r="BU7" s="1">
-        <v>1616.880000</v>
+        <v>1616.88</v>
       </c>
       <c r="BV7" s="1">
-        <v>-827.620000</v>
+        <v>-827.62</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>59223.337119</v>
+        <v>59223.337119000003</v>
       </c>
       <c r="BY7" s="1">
         <v>16.450927</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1769.990000</v>
+        <v>1769.99</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1096.980000</v>
+        <v>-1096.98</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>59234.645736</v>
+        <v>59234.645735999999</v>
       </c>
       <c r="CD7" s="1">
-        <v>16.454068</v>
+        <v>16.454067999999999</v>
       </c>
       <c r="CE7" s="1">
-        <v>2191.900000</v>
+        <v>2191.9</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1747.580000</v>
+        <v>-1747.58</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>59060.483006</v>
+        <v>59060.483006000002</v>
       </c>
       <c r="B8" s="1">
-        <v>16.405690</v>
+        <v>16.40569</v>
       </c>
       <c r="C8" s="1">
-        <v>1149.950000</v>
+        <v>1149.95</v>
       </c>
       <c r="D8" s="1">
-        <v>-253.938000</v>
+        <v>-253.93799999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>59071.258127</v>
+        <v>59071.258127000001</v>
       </c>
       <c r="G8" s="1">
         <v>16.408683</v>
       </c>
       <c r="H8" s="1">
-        <v>1169.490000</v>
+        <v>1169.49</v>
       </c>
       <c r="I8" s="1">
-        <v>-212.188000</v>
+        <v>-212.18799999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>59081.412706</v>
+        <v>59081.412706000003</v>
       </c>
       <c r="L8" s="1">
-        <v>16.411504</v>
+        <v>16.411504000000001</v>
       </c>
       <c r="M8" s="1">
-        <v>1195.800000</v>
+        <v>1195.8</v>
       </c>
       <c r="N8" s="1">
-        <v>-148.022000</v>
+        <v>-148.02199999999999</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>59092.273090</v>
+        <v>59092.273090000002</v>
       </c>
       <c r="Q8" s="1">
-        <v>16.414520</v>
+        <v>16.41452</v>
       </c>
       <c r="R8" s="1">
-        <v>1202.830000</v>
+        <v>1202.83</v>
       </c>
       <c r="S8" s="1">
-        <v>-126.929000</v>
+        <v>-126.929</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>59102.836886</v>
+        <v>59102.836885999997</v>
       </c>
       <c r="V8" s="1">
         <v>16.417455</v>
       </c>
       <c r="W8" s="1">
-        <v>1209.840000</v>
+        <v>1209.8399999999999</v>
       </c>
       <c r="X8" s="1">
-        <v>-106.795000</v>
+        <v>-106.795</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>59113.320857</v>
+        <v>59113.320856999999</v>
       </c>
       <c r="AA8" s="1">
-        <v>16.420367</v>
+        <v>16.420366999999999</v>
       </c>
       <c r="AB8" s="1">
-        <v>1217.430000</v>
+        <v>1217.43</v>
       </c>
       <c r="AC8" s="1">
-        <v>-90.365000</v>
+        <v>-90.364999999999995</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>59123.858330</v>
+        <v>59123.858330000003</v>
       </c>
       <c r="AF8" s="1">
-        <v>16.423294</v>
+        <v>16.423293999999999</v>
       </c>
       <c r="AG8" s="1">
-        <v>1221.960000</v>
+        <v>1221.96</v>
       </c>
       <c r="AH8" s="1">
-        <v>-86.057300</v>
+        <v>-86.057299999999998</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>59134.362604</v>
+        <v>59134.362604000002</v>
       </c>
       <c r="AK8" s="1">
         <v>16.426212</v>
       </c>
       <c r="AL8" s="1">
-        <v>1229.280000</v>
+        <v>1229.28</v>
       </c>
       <c r="AM8" s="1">
-        <v>-89.797900</v>
+        <v>-89.797899999999998</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>59145.043949</v>
+        <v>59145.043948999999</v>
       </c>
       <c r="AP8" s="1">
-        <v>16.429179</v>
+        <v>16.429179000000001</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1237.350000</v>
+        <v>1237.3499999999999</v>
       </c>
       <c r="AR8" s="1">
-        <v>-101.829000</v>
+        <v>-101.82899999999999</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>59156.119120</v>
+        <v>59156.119120000003</v>
       </c>
       <c r="AU8" s="1">
-        <v>16.432255</v>
+        <v>16.432255000000001</v>
       </c>
       <c r="AV8" s="1">
-        <v>1247.490000</v>
+        <v>1247.49</v>
       </c>
       <c r="AW8" s="1">
-        <v>-121.428000</v>
+        <v>-121.428</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
         <v>59167.077264</v>
       </c>
       <c r="AZ8" s="1">
-        <v>16.435299</v>
+        <v>16.435299000000001</v>
       </c>
       <c r="BA8" s="1">
-        <v>1256.040000</v>
+        <v>1256.04</v>
       </c>
       <c r="BB8" s="1">
-        <v>-139.020000</v>
+        <v>-139.02000000000001</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>59178.037329</v>
+        <v>59178.037328999999</v>
       </c>
       <c r="BE8" s="1">
-        <v>16.438344</v>
+        <v>16.438344000000001</v>
       </c>
       <c r="BF8" s="1">
-        <v>1296.850000</v>
+        <v>1296.8499999999999</v>
       </c>
       <c r="BG8" s="1">
-        <v>-221.260000</v>
+        <v>-221.26</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>59189.154197</v>
+        <v>59189.154197000003</v>
       </c>
       <c r="BJ8" s="1">
-        <v>16.441432</v>
+        <v>16.441431999999999</v>
       </c>
       <c r="BK8" s="1">
-        <v>1367.470000</v>
+        <v>1367.47</v>
       </c>
       <c r="BL8" s="1">
-        <v>-357.492000</v>
+        <v>-357.49200000000002</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>59200.783365</v>
+        <v>59200.783365000003</v>
       </c>
       <c r="BO8" s="1">
-        <v>16.444662</v>
+        <v>16.444662000000001</v>
       </c>
       <c r="BP8" s="1">
-        <v>1483.140000</v>
+        <v>1483.14</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-578.627000</v>
+        <v>-578.62699999999995</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>59212.473573</v>
+        <v>59212.473573000003</v>
       </c>
       <c r="BT8" s="1">
-        <v>16.447909</v>
+        <v>16.447908999999999</v>
       </c>
       <c r="BU8" s="1">
-        <v>1616.910000</v>
+        <v>1616.91</v>
       </c>
       <c r="BV8" s="1">
-        <v>-827.581000</v>
+        <v>-827.58100000000002</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>59223.758091</v>
+        <v>59223.758091000003</v>
       </c>
       <c r="BY8" s="1">
         <v>16.451044</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1770.280000</v>
+        <v>1770.28</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1097.000000</v>
+        <v>-1097</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>59235.165550</v>
+        <v>59235.165549999998</v>
       </c>
       <c r="CD8" s="1">
-        <v>16.454213</v>
+        <v>16.454212999999999</v>
       </c>
       <c r="CE8" s="1">
-        <v>2191.360000</v>
+        <v>2191.36</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1748.150000</v>
+        <v>-1748.15</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>59060.827260</v>
+        <v>59060.827259999998</v>
       </c>
       <c r="B9" s="1">
-        <v>16.405785</v>
+        <v>16.405785000000002</v>
       </c>
       <c r="C9" s="1">
-        <v>1149.840000</v>
+        <v>1149.8399999999999</v>
       </c>
       <c r="D9" s="1">
-        <v>-253.792000</v>
+        <v>-253.792</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>59071.928190</v>
+        <v>59071.928189999999</v>
       </c>
       <c r="G9" s="1">
-        <v>16.408869</v>
+        <v>16.408868999999999</v>
       </c>
       <c r="H9" s="1">
-        <v>1169.730000</v>
+        <v>1169.73</v>
       </c>
       <c r="I9" s="1">
-        <v>-213.656000</v>
+        <v>-213.65600000000001</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>59082.080306</v>
+        <v>59082.080306000003</v>
       </c>
       <c r="L9" s="1">
-        <v>16.411689</v>
+        <v>16.411688999999999</v>
       </c>
       <c r="M9" s="1">
-        <v>1195.730000</v>
+        <v>1195.73</v>
       </c>
       <c r="N9" s="1">
-        <v>-147.831000</v>
+        <v>-147.83099999999999</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>59092.656996</v>
+        <v>59092.656995999998</v>
       </c>
       <c r="Q9" s="1">
-        <v>16.414627</v>
+        <v>16.414626999999999</v>
       </c>
       <c r="R9" s="1">
-        <v>1202.860000</v>
+        <v>1202.8599999999999</v>
       </c>
       <c r="S9" s="1">
-        <v>-127.011000</v>
+        <v>-127.011</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>59103.181108</v>
+        <v>59103.181107999997</v>
       </c>
       <c r="V9" s="1">
-        <v>16.417550</v>
+        <v>16.417549999999999</v>
       </c>
       <c r="W9" s="1">
-        <v>1209.970000</v>
+        <v>1209.97</v>
       </c>
       <c r="X9" s="1">
-        <v>-106.753000</v>
+        <v>-106.753</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
         <v>59113.669016</v>
       </c>
       <c r="AA9" s="1">
-        <v>16.420464</v>
+        <v>16.420463999999999</v>
       </c>
       <c r="AB9" s="1">
-        <v>1217.450000</v>
+        <v>1217.45</v>
       </c>
       <c r="AC9" s="1">
-        <v>-90.438200</v>
+        <v>-90.438199999999995</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>59124.202089</v>
+        <v>59124.202088999999</v>
       </c>
       <c r="AF9" s="1">
         <v>16.423389</v>
       </c>
       <c r="AG9" s="1">
-        <v>1221.890000</v>
+        <v>1221.8900000000001</v>
       </c>
       <c r="AH9" s="1">
-        <v>-86.065300</v>
+        <v>-86.065299999999993</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>59134.789660</v>
+        <v>59134.789660000002</v>
       </c>
       <c r="AK9" s="1">
-        <v>16.426330</v>
+        <v>16.42633</v>
       </c>
       <c r="AL9" s="1">
-        <v>1229.260000</v>
+        <v>1229.26</v>
       </c>
       <c r="AM9" s="1">
-        <v>-89.793300</v>
+        <v>-89.793300000000002</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>59145.456162</v>
+        <v>59145.456162000002</v>
       </c>
       <c r="AP9" s="1">
-        <v>16.429293</v>
+        <v>16.429293000000001</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1237.340000</v>
+        <v>1237.3399999999999</v>
       </c>
       <c r="AR9" s="1">
-        <v>-101.825000</v>
+        <v>-101.825</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>59156.418239</v>
+        <v>59156.418238999999</v>
       </c>
       <c r="AU9" s="1">
-        <v>16.432338</v>
+        <v>16.432338000000001</v>
       </c>
       <c r="AV9" s="1">
-        <v>1247.470000</v>
+        <v>1247.47</v>
       </c>
       <c r="AW9" s="1">
-        <v>-121.401000</v>
+        <v>-121.401</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>59167.437855</v>
+        <v>59167.437854999996</v>
       </c>
       <c r="AZ9" s="1">
         <v>16.435399</v>
       </c>
       <c r="BA9" s="1">
-        <v>1256.040000</v>
+        <v>1256.04</v>
       </c>
       <c r="BB9" s="1">
-        <v>-139.045000</v>
+        <v>-139.04499999999999</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>59178.396930</v>
+        <v>59178.396930000003</v>
       </c>
       <c r="BE9" s="1">
         <v>16.438444</v>
       </c>
       <c r="BF9" s="1">
-        <v>1296.850000</v>
+        <v>1296.8499999999999</v>
       </c>
       <c r="BG9" s="1">
-        <v>-221.284000</v>
+        <v>-221.28399999999999</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>59189.529138</v>
+        <v>59189.529137999998</v>
       </c>
       <c r="BJ9" s="1">
-        <v>16.441536</v>
+        <v>16.441535999999999</v>
       </c>
       <c r="BK9" s="1">
-        <v>1367.420000</v>
+        <v>1367.42</v>
       </c>
       <c r="BL9" s="1">
-        <v>-357.508000</v>
+        <v>-357.50799999999998</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>59201.600275</v>
+        <v>59201.600274999997</v>
       </c>
       <c r="BO9" s="1">
         <v>16.444889</v>
       </c>
       <c r="BP9" s="1">
-        <v>1483.180000</v>
+        <v>1483.18</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-578.576000</v>
+        <v>-578.57600000000002</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>59212.894211</v>
+        <v>59212.894210999999</v>
       </c>
       <c r="BT9" s="1">
-        <v>16.448026</v>
+        <v>16.448025999999999</v>
       </c>
       <c r="BU9" s="1">
-        <v>1616.940000</v>
+        <v>1616.94</v>
       </c>
       <c r="BV9" s="1">
-        <v>-827.606000</v>
+        <v>-827.60599999999999</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
         <v>59224.180645</v>
       </c>
       <c r="BY9" s="1">
-        <v>16.451161</v>
+        <v>16.451160999999999</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1770.250000</v>
+        <v>1770.25</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1097.050000</v>
+        <v>-1097.05</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>59235.719274</v>
+        <v>59235.719274000003</v>
       </c>
       <c r="CD9" s="1">
         <v>16.454366</v>
       </c>
       <c r="CE9" s="1">
-        <v>2189.860000</v>
+        <v>2189.86</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1748.230000</v>
+        <v>-1748.23</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
         <v>59061.480958</v>
       </c>
@@ -2537,270 +2953,270 @@
         <v>16.405967</v>
       </c>
       <c r="C10" s="1">
-        <v>1149.890000</v>
+        <v>1149.8900000000001</v>
       </c>
       <c r="D10" s="1">
-        <v>-253.761000</v>
+        <v>-253.761</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>59072.296257</v>
+        <v>59072.296257000002</v>
       </c>
       <c r="G10" s="1">
-        <v>16.408971</v>
+        <v>16.408971000000001</v>
       </c>
       <c r="H10" s="1">
-        <v>1169.640000</v>
+        <v>1169.6400000000001</v>
       </c>
       <c r="I10" s="1">
-        <v>-212.838000</v>
+        <v>-212.83799999999999</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>59082.457264</v>
+        <v>59082.457263999997</v>
       </c>
       <c r="L10" s="1">
         <v>16.411794</v>
       </c>
       <c r="M10" s="1">
-        <v>1195.810000</v>
+        <v>1195.81</v>
       </c>
       <c r="N10" s="1">
-        <v>-148.001000</v>
+        <v>-148.001</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>59093.003735</v>
+        <v>59093.003734999998</v>
       </c>
       <c r="Q10" s="1">
-        <v>16.414723</v>
+        <v>16.414722999999999</v>
       </c>
       <c r="R10" s="1">
-        <v>1202.850000</v>
+        <v>1202.8499999999999</v>
       </c>
       <c r="S10" s="1">
-        <v>-127.163000</v>
+        <v>-127.163</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>59103.522884</v>
+        <v>59103.522883999998</v>
       </c>
       <c r="V10" s="1">
         <v>16.417645</v>
       </c>
       <c r="W10" s="1">
-        <v>1209.930000</v>
+        <v>1209.93</v>
       </c>
       <c r="X10" s="1">
-        <v>-106.875000</v>
+        <v>-106.875</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>59114.016710</v>
+        <v>59114.016710000004</v>
       </c>
       <c r="AA10" s="1">
-        <v>16.420560</v>
+        <v>16.420559999999998</v>
       </c>
       <c r="AB10" s="1">
-        <v>1217.390000</v>
+        <v>1217.3900000000001</v>
       </c>
       <c r="AC10" s="1">
-        <v>-90.349800</v>
+        <v>-90.349800000000002</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>59124.625672</v>
+        <v>59124.625672000002</v>
       </c>
       <c r="AF10" s="1">
-        <v>16.423507</v>
+        <v>16.423507000000001</v>
       </c>
       <c r="AG10" s="1">
-        <v>1222.080000</v>
+        <v>1222.08</v>
       </c>
       <c r="AH10" s="1">
-        <v>-85.946400</v>
+        <v>-85.946399999999997</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
         <v>59135.069935</v>
       </c>
       <c r="AK10" s="1">
-        <v>16.426408</v>
+        <v>16.426407999999999</v>
       </c>
       <c r="AL10" s="1">
-        <v>1229.260000</v>
+        <v>1229.26</v>
       </c>
       <c r="AM10" s="1">
-        <v>-89.780600</v>
+        <v>-89.780600000000007</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>59145.763180</v>
+        <v>59145.763180000002</v>
       </c>
       <c r="AP10" s="1">
-        <v>16.429379</v>
+        <v>16.429379000000001</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1237.330000</v>
+        <v>1237.33</v>
       </c>
       <c r="AR10" s="1">
-        <v>-101.827000</v>
+        <v>-101.827</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
         <v>59156.785247</v>
       </c>
       <c r="AU10" s="1">
-        <v>16.432440</v>
+        <v>16.43244</v>
       </c>
       <c r="AV10" s="1">
-        <v>1247.430000</v>
+        <v>1247.43</v>
       </c>
       <c r="AW10" s="1">
-        <v>-121.402000</v>
+        <v>-121.402</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>59167.796928</v>
+        <v>59167.796928000003</v>
       </c>
       <c r="AZ10" s="1">
         <v>16.435499</v>
       </c>
       <c r="BA10" s="1">
-        <v>1256.040000</v>
+        <v>1256.04</v>
       </c>
       <c r="BB10" s="1">
-        <v>-139.034000</v>
+        <v>-139.03399999999999</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>59178.757025</v>
+        <v>59178.757024999999</v>
       </c>
       <c r="BE10" s="1">
         <v>16.438544</v>
       </c>
       <c r="BF10" s="1">
-        <v>1296.830000</v>
+        <v>1296.83</v>
       </c>
       <c r="BG10" s="1">
-        <v>-221.252000</v>
+        <v>-221.25200000000001</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>59190.282065</v>
+        <v>59190.282064999999</v>
       </c>
       <c r="BJ10" s="1">
-        <v>16.441745</v>
+        <v>16.441745000000001</v>
       </c>
       <c r="BK10" s="1">
-        <v>1367.520000</v>
+        <v>1367.52</v>
       </c>
       <c r="BL10" s="1">
-        <v>-357.478000</v>
+        <v>-357.47800000000001</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>59202.018898</v>
+        <v>59202.018898000002</v>
       </c>
       <c r="BO10" s="1">
-        <v>16.445005</v>
+        <v>16.445004999999998</v>
       </c>
       <c r="BP10" s="1">
-        <v>1483.110000</v>
+        <v>1483.11</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-578.586000</v>
+        <v>-578.58600000000001</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>59213.315779</v>
+        <v>59213.315778999997</v>
       </c>
       <c r="BT10" s="1">
-        <v>16.448143</v>
+        <v>16.448143000000002</v>
       </c>
       <c r="BU10" s="1">
-        <v>1616.950000</v>
+        <v>1616.95</v>
       </c>
       <c r="BV10" s="1">
-        <v>-827.664000</v>
+        <v>-827.66399999999999</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>59224.633492</v>
+        <v>59224.633492000001</v>
       </c>
       <c r="BY10" s="1">
-        <v>16.451287</v>
+        <v>16.451287000000001</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1770.120000</v>
+        <v>1770.12</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1096.950000</v>
+        <v>-1096.95</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>59236.553348</v>
+        <v>59236.553348000001</v>
       </c>
       <c r="CD10" s="1">
-        <v>16.454598</v>
+        <v>16.454598000000001</v>
       </c>
       <c r="CE10" s="1">
-        <v>2192.240000</v>
+        <v>2192.2399999999998</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1747.330000</v>
+        <v>-1747.33</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>59061.850020</v>
+        <v>59061.850019999998</v>
       </c>
       <c r="B11" s="1">
-        <v>16.406069</v>
+        <v>16.406068999999999</v>
       </c>
       <c r="C11" s="1">
-        <v>1149.940000</v>
+        <v>1149.94</v>
       </c>
       <c r="D11" s="1">
-        <v>-253.959000</v>
+        <v>-253.959</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
         <v>59072.642925</v>
@@ -2809,28 +3225,28 @@
         <v>16.409067</v>
       </c>
       <c r="H11" s="1">
-        <v>1169.920000</v>
+        <v>1169.92</v>
       </c>
       <c r="I11" s="1">
-        <v>-212.848000</v>
+        <v>-212.84800000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>59082.799568</v>
+        <v>59082.799568000002</v>
       </c>
       <c r="L11" s="1">
-        <v>16.411889</v>
+        <v>16.411888999999999</v>
       </c>
       <c r="M11" s="1">
-        <v>1195.870000</v>
+        <v>1195.8699999999999</v>
       </c>
       <c r="N11" s="1">
-        <v>-147.858000</v>
+        <v>-147.858</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
         <v>59093.355399</v>
@@ -2839,43 +3255,43 @@
         <v>16.414821</v>
       </c>
       <c r="R11" s="1">
-        <v>1202.900000</v>
+        <v>1202.9000000000001</v>
       </c>
       <c r="S11" s="1">
-        <v>-127.180000</v>
+        <v>-127.18</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>59103.938499</v>
+        <v>59103.938499000004</v>
       </c>
       <c r="V11" s="1">
-        <v>16.417761</v>
+        <v>16.417760999999999</v>
       </c>
       <c r="W11" s="1">
-        <v>1209.890000</v>
+        <v>1209.8900000000001</v>
       </c>
       <c r="X11" s="1">
-        <v>-106.899000</v>
+        <v>-106.899</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>59114.437813</v>
+        <v>59114.437812999997</v>
       </c>
       <c r="AA11" s="1">
-        <v>16.420677</v>
+        <v>16.420677000000001</v>
       </c>
       <c r="AB11" s="1">
-        <v>1217.520000</v>
+        <v>1217.52</v>
       </c>
       <c r="AC11" s="1">
-        <v>-90.354000</v>
+        <v>-90.353999999999999</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
         <v>59124.895805</v>
@@ -2884,497 +3300,497 @@
         <v>16.423582</v>
       </c>
       <c r="AG11" s="1">
-        <v>1222.050000</v>
+        <v>1222.05</v>
       </c>
       <c r="AH11" s="1">
-        <v>-86.166100</v>
+        <v>-86.1661</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>59135.415114</v>
+        <v>59135.415114000003</v>
       </c>
       <c r="AK11" s="1">
-        <v>16.426504</v>
+        <v>16.426504000000001</v>
       </c>
       <c r="AL11" s="1">
-        <v>1229.260000</v>
+        <v>1229.26</v>
       </c>
       <c r="AM11" s="1">
-        <v>-89.771000</v>
+        <v>-89.771000000000001</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>59146.123739</v>
+        <v>59146.123739000002</v>
       </c>
       <c r="AP11" s="1">
-        <v>16.429479</v>
+        <v>16.429479000000001</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1237.320000</v>
+        <v>1237.32</v>
       </c>
       <c r="AR11" s="1">
-        <v>-101.801000</v>
+        <v>-101.801</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>59157.148317</v>
+        <v>59157.148316999999</v>
       </c>
       <c r="AU11" s="1">
-        <v>16.432541</v>
+        <v>16.432541000000001</v>
       </c>
       <c r="AV11" s="1">
-        <v>1247.480000</v>
+        <v>1247.48</v>
       </c>
       <c r="AW11" s="1">
-        <v>-121.407000</v>
+        <v>-121.407</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>59168.515135</v>
+        <v>59168.515135000001</v>
       </c>
       <c r="AZ11" s="1">
         <v>16.435699</v>
       </c>
       <c r="BA11" s="1">
-        <v>1256.030000</v>
+        <v>1256.03</v>
       </c>
       <c r="BB11" s="1">
-        <v>-139.039000</v>
+        <v>-139.03899999999999</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>59179.481679</v>
+        <v>59179.481678999997</v>
       </c>
       <c r="BE11" s="1">
-        <v>16.438745</v>
+        <v>16.438745000000001</v>
       </c>
       <c r="BF11" s="1">
-        <v>1296.860000</v>
+        <v>1296.8599999999999</v>
       </c>
       <c r="BG11" s="1">
-        <v>-221.269000</v>
+        <v>-221.26900000000001</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>59190.657538</v>
+        <v>59190.657537999999</v>
       </c>
       <c r="BJ11" s="1">
-        <v>16.441849</v>
+        <v>16.441849000000001</v>
       </c>
       <c r="BK11" s="1">
-        <v>1367.480000</v>
+        <v>1367.48</v>
       </c>
       <c r="BL11" s="1">
-        <v>-357.479000</v>
+        <v>-357.47899999999998</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>59202.414243</v>
+        <v>59202.414242999999</v>
       </c>
       <c r="BO11" s="1">
-        <v>16.445115</v>
+        <v>16.445115000000001</v>
       </c>
       <c r="BP11" s="1">
-        <v>1483.130000</v>
+        <v>1483.13</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-578.535000</v>
+        <v>-578.53499999999997</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>59213.745849</v>
+        <v>59213.745848999999</v>
       </c>
       <c r="BT11" s="1">
-        <v>16.448263</v>
+        <v>16.448263000000001</v>
       </c>
       <c r="BU11" s="1">
-        <v>1616.870000</v>
+        <v>1616.87</v>
       </c>
       <c r="BV11" s="1">
-        <v>-827.691000</v>
+        <v>-827.69100000000003</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>59225.366580</v>
+        <v>59225.366580000002</v>
       </c>
       <c r="BY11" s="1">
-        <v>16.451491</v>
+        <v>16.451491000000001</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1770.240000</v>
+        <v>1770.24</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1096.970000</v>
+        <v>-1096.97</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>59236.801383</v>
+        <v>59236.801382999998</v>
       </c>
       <c r="CD11" s="1">
-        <v>16.454667</v>
+        <v>16.454667000000001</v>
       </c>
       <c r="CE11" s="1">
-        <v>2190.560000</v>
+        <v>2190.56</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1745.850000</v>
+        <v>-1745.85</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>59062.193212</v>
+        <v>59062.193211999998</v>
       </c>
       <c r="B12" s="1">
-        <v>16.406165</v>
+        <v>16.406165000000001</v>
       </c>
       <c r="C12" s="1">
-        <v>1150.140000</v>
+        <v>1150.1400000000001</v>
       </c>
       <c r="D12" s="1">
-        <v>-254.112000</v>
+        <v>-254.11199999999999</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
         <v>59072.986652</v>
       </c>
       <c r="G12" s="1">
-        <v>16.409163</v>
+        <v>16.409162999999999</v>
       </c>
       <c r="H12" s="1">
-        <v>1170.010000</v>
+        <v>1170.01</v>
       </c>
       <c r="I12" s="1">
-        <v>-212.691000</v>
+        <v>-212.691</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>59083.146244</v>
+        <v>59083.146244000003</v>
       </c>
       <c r="L12" s="1">
-        <v>16.411985</v>
+        <v>16.411985000000001</v>
       </c>
       <c r="M12" s="1">
-        <v>1195.710000</v>
+        <v>1195.71</v>
       </c>
       <c r="N12" s="1">
-        <v>-148.118000</v>
+        <v>-148.11799999999999</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>59093.771542</v>
+        <v>59093.771542000002</v>
       </c>
       <c r="Q12" s="1">
-        <v>16.414937</v>
+        <v>16.414936999999998</v>
       </c>
       <c r="R12" s="1">
-        <v>1202.820000</v>
+        <v>1202.82</v>
       </c>
       <c r="S12" s="1">
-        <v>-127.206000</v>
+        <v>-127.206</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>59104.219732</v>
+        <v>59104.219731999998</v>
       </c>
       <c r="V12" s="1">
-        <v>16.417839</v>
+        <v>16.417839000000001</v>
       </c>
       <c r="W12" s="1">
-        <v>1209.920000</v>
+        <v>1209.92</v>
       </c>
       <c r="X12" s="1">
-        <v>-106.849000</v>
+        <v>-106.849</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>59114.730949</v>
+        <v>59114.730948999997</v>
       </c>
       <c r="AA12" s="1">
         <v>16.420759</v>
       </c>
       <c r="AB12" s="1">
-        <v>1217.380000</v>
+        <v>1217.3800000000001</v>
       </c>
       <c r="AC12" s="1">
-        <v>-90.351200</v>
+        <v>-90.351200000000006</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
         <v>59125.241211</v>
       </c>
       <c r="AF12" s="1">
-        <v>16.423678</v>
+        <v>16.423677999999999</v>
       </c>
       <c r="AG12" s="1">
-        <v>1222.090000</v>
+        <v>1222.0899999999999</v>
       </c>
       <c r="AH12" s="1">
-        <v>-86.157400</v>
+        <v>-86.157399999999996</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>59135.767274</v>
+        <v>59135.767273999998</v>
       </c>
       <c r="AK12" s="1">
-        <v>16.426602</v>
+        <v>16.426601999999999</v>
       </c>
       <c r="AL12" s="1">
-        <v>1229.250000</v>
+        <v>1229.25</v>
       </c>
       <c r="AM12" s="1">
-        <v>-89.778500</v>
+        <v>-89.778499999999994</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>59146.484861</v>
+        <v>59146.484860999997</v>
       </c>
       <c r="AP12" s="1">
         <v>16.429579</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1237.340000</v>
+        <v>1237.3399999999999</v>
       </c>
       <c r="AR12" s="1">
-        <v>-101.838000</v>
+        <v>-101.83799999999999</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>59157.876159</v>
+        <v>59157.876158999999</v>
       </c>
       <c r="AU12" s="1">
-        <v>16.432743</v>
+        <v>16.432742999999999</v>
       </c>
       <c r="AV12" s="1">
-        <v>1247.470000</v>
+        <v>1247.47</v>
       </c>
       <c r="AW12" s="1">
-        <v>-121.415000</v>
+        <v>-121.41500000000001</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>59168.872253</v>
+        <v>59168.872253000001</v>
       </c>
       <c r="AZ12" s="1">
-        <v>16.435798</v>
+        <v>16.435797999999998</v>
       </c>
       <c r="BA12" s="1">
-        <v>1256.070000</v>
+        <v>1256.07</v>
       </c>
       <c r="BB12" s="1">
-        <v>-139.047000</v>
+        <v>-139.047</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>59179.841280</v>
+        <v>59179.841280000001</v>
       </c>
       <c r="BE12" s="1">
-        <v>16.438845</v>
+        <v>16.438845000000001</v>
       </c>
       <c r="BF12" s="1">
-        <v>1296.840000</v>
+        <v>1296.8399999999999</v>
       </c>
       <c r="BG12" s="1">
-        <v>-221.272000</v>
+        <v>-221.27199999999999</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>59191.033009</v>
+        <v>59191.033008999999</v>
       </c>
       <c r="BJ12" s="1">
-        <v>16.441954</v>
+        <v>16.441953999999999</v>
       </c>
       <c r="BK12" s="1">
-        <v>1367.420000</v>
+        <v>1367.42</v>
       </c>
       <c r="BL12" s="1">
-        <v>-357.500000</v>
+        <v>-357.5</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>59203.154242</v>
+        <v>59203.154241999997</v>
       </c>
       <c r="BO12" s="1">
         <v>16.445321</v>
       </c>
       <c r="BP12" s="1">
-        <v>1483.160000</v>
+        <v>1483.16</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-578.613000</v>
+        <v>-578.61300000000006</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>59214.512625</v>
+        <v>59214.512625000003</v>
       </c>
       <c r="BT12" s="1">
-        <v>16.448476</v>
+        <v>16.448475999999999</v>
       </c>
       <c r="BU12" s="1">
-        <v>1616.970000</v>
+        <v>1616.97</v>
       </c>
       <c r="BV12" s="1">
-        <v>-827.641000</v>
+        <v>-827.64099999999996</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>59225.494085</v>
+        <v>59225.494084999998</v>
       </c>
       <c r="BY12" s="1">
-        <v>16.451526</v>
+        <v>16.451526000000001</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1770.190000</v>
+        <v>1770.19</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1096.890000</v>
+        <v>-1096.8900000000001</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>59237.335044</v>
+        <v>59237.335043999999</v>
       </c>
       <c r="CD12" s="1">
         <v>16.454815</v>
       </c>
       <c r="CE12" s="1">
-        <v>2189.610000</v>
+        <v>2189.61</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1748.030000</v>
+        <v>-1748.03</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
         <v>59062.538427</v>
       </c>
       <c r="B13" s="1">
-        <v>16.406261</v>
+        <v>16.406261000000001</v>
       </c>
       <c r="C13" s="1">
-        <v>1149.690000</v>
+        <v>1149.69</v>
       </c>
       <c r="D13" s="1">
-        <v>-253.909000</v>
+        <v>-253.90899999999999</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>59073.401804</v>
+        <v>59073.401804000001</v>
       </c>
       <c r="G13" s="1">
         <v>16.409278</v>
       </c>
       <c r="H13" s="1">
-        <v>1169.900000</v>
+        <v>1169.9000000000001</v>
       </c>
       <c r="I13" s="1">
-        <v>-212.135000</v>
+        <v>-212.13499999999999</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>59083.617904</v>
+        <v>59083.617903999999</v>
       </c>
       <c r="L13" s="1">
-        <v>16.412116</v>
+        <v>16.412116000000001</v>
       </c>
       <c r="M13" s="1">
-        <v>1195.850000</v>
+        <v>1195.8499999999999</v>
       </c>
       <c r="N13" s="1">
-        <v>-148.009000</v>
+        <v>-148.00899999999999</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>59094.050258</v>
+        <v>59094.050258000003</v>
       </c>
       <c r="Q13" s="1">
-        <v>16.415014</v>
+        <v>16.415013999999999</v>
       </c>
       <c r="R13" s="1">
-        <v>1202.880000</v>
+        <v>1202.8800000000001</v>
       </c>
       <c r="S13" s="1">
-        <v>-127.158000</v>
+        <v>-127.158</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>59104.564452</v>
+        <v>59104.564451999999</v>
       </c>
       <c r="V13" s="1">
         <v>16.417935</v>
       </c>
       <c r="W13" s="1">
-        <v>1209.840000</v>
+        <v>1209.8399999999999</v>
       </c>
       <c r="X13" s="1">
-        <v>-106.996000</v>
+        <v>-106.996</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
         <v>59115.077652</v>
@@ -3383,43 +3799,43 @@
         <v>16.420855</v>
       </c>
       <c r="AB13" s="1">
-        <v>1217.390000</v>
+        <v>1217.3900000000001</v>
       </c>
       <c r="AC13" s="1">
-        <v>-90.417000</v>
+        <v>-90.417000000000002</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>59125.585898</v>
+        <v>59125.585897999998</v>
       </c>
       <c r="AF13" s="1">
-        <v>16.423774</v>
+        <v>16.423774000000002</v>
       </c>
       <c r="AG13" s="1">
-        <v>1222.080000</v>
+        <v>1222.08</v>
       </c>
       <c r="AH13" s="1">
-        <v>-86.079400</v>
+        <v>-86.079400000000007</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>59136.461450</v>
+        <v>59136.461450000003</v>
       </c>
       <c r="AK13" s="1">
-        <v>16.426795</v>
+        <v>16.426794999999998</v>
       </c>
       <c r="AL13" s="1">
-        <v>1229.260000</v>
+        <v>1229.26</v>
       </c>
       <c r="AM13" s="1">
-        <v>-89.790500</v>
+        <v>-89.790499999999994</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
         <v>59147.203532</v>
@@ -3428,422 +3844,422 @@
         <v>16.429779</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1237.320000</v>
+        <v>1237.32</v>
       </c>
       <c r="AR13" s="1">
-        <v>-101.817000</v>
+        <v>-101.81699999999999</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>59158.242754</v>
+        <v>59158.242753999999</v>
       </c>
       <c r="AU13" s="1">
         <v>16.432845</v>
       </c>
       <c r="AV13" s="1">
-        <v>1247.500000</v>
+        <v>1247.5</v>
       </c>
       <c r="AW13" s="1">
-        <v>-121.405000</v>
+        <v>-121.405</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>59169.233341</v>
+        <v>59169.233340999999</v>
       </c>
       <c r="AZ13" s="1">
-        <v>16.435898</v>
+        <v>16.435898000000002</v>
       </c>
       <c r="BA13" s="1">
-        <v>1256.040000</v>
+        <v>1256.04</v>
       </c>
       <c r="BB13" s="1">
-        <v>-139.018000</v>
+        <v>-139.018</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>59180.202894</v>
+        <v>59180.202894000002</v>
       </c>
       <c r="BE13" s="1">
         <v>16.438945</v>
       </c>
       <c r="BF13" s="1">
-        <v>1296.840000</v>
+        <v>1296.8399999999999</v>
       </c>
       <c r="BG13" s="1">
-        <v>-221.284000</v>
+        <v>-221.28399999999999</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>59191.720959</v>
+        <v>59191.720958999998</v>
       </c>
       <c r="BJ13" s="1">
         <v>16.442145</v>
       </c>
       <c r="BK13" s="1">
-        <v>1367.490000</v>
+        <v>1367.49</v>
       </c>
       <c r="BL13" s="1">
-        <v>-357.441000</v>
+        <v>-357.44099999999997</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>59203.262866</v>
+        <v>59203.262865999997</v>
       </c>
       <c r="BO13" s="1">
-        <v>16.445351</v>
+        <v>16.445350999999999</v>
       </c>
       <c r="BP13" s="1">
-        <v>1483.130000</v>
+        <v>1483.13</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-578.548000</v>
+        <v>-578.548</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>59215.021553</v>
+        <v>59215.021552999999</v>
       </c>
       <c r="BT13" s="1">
-        <v>16.448617</v>
+        <v>16.448616999999999</v>
       </c>
       <c r="BU13" s="1">
-        <v>1616.980000</v>
+        <v>1616.98</v>
       </c>
       <c r="BV13" s="1">
-        <v>-827.664000</v>
+        <v>-827.66399999999999</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
         <v>59225.919619</v>
       </c>
       <c r="BY13" s="1">
-        <v>16.451644</v>
+        <v>16.451644000000002</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1770.290000</v>
+        <v>1770.29</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1097.000000</v>
+        <v>-1097</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>59237.875721</v>
+        <v>59237.875720999997</v>
       </c>
       <c r="CD13" s="1">
-        <v>16.454965</v>
+        <v>16.454965000000001</v>
       </c>
       <c r="CE13" s="1">
-        <v>2191.590000</v>
+        <v>2191.59</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1746.170000</v>
+        <v>-1746.17</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
         <v>59062.968062</v>
       </c>
       <c r="B14" s="1">
-        <v>16.406380</v>
+        <v>16.406379999999999</v>
       </c>
       <c r="C14" s="1">
-        <v>1149.900000</v>
+        <v>1149.9000000000001</v>
       </c>
       <c r="D14" s="1">
-        <v>-253.991000</v>
+        <v>-253.99100000000001</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>59073.683679</v>
+        <v>59073.683679000002</v>
       </c>
       <c r="G14" s="1">
         <v>16.409357</v>
       </c>
       <c r="H14" s="1">
-        <v>1170.150000</v>
+        <v>1170.1500000000001</v>
       </c>
       <c r="I14" s="1">
-        <v>-212.315000</v>
+        <v>-212.315</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>59083.875359</v>
+        <v>59083.875358999998</v>
       </c>
       <c r="L14" s="1">
         <v>16.412188</v>
       </c>
       <c r="M14" s="1">
-        <v>1195.730000</v>
+        <v>1195.73</v>
       </c>
       <c r="N14" s="1">
-        <v>-147.849000</v>
+        <v>-147.84899999999999</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>59094.399472</v>
+        <v>59094.399471999997</v>
       </c>
       <c r="Q14" s="1">
         <v>16.415111</v>
       </c>
       <c r="R14" s="1">
-        <v>1202.960000</v>
+        <v>1202.96</v>
       </c>
       <c r="S14" s="1">
-        <v>-127.222000</v>
+        <v>-127.22199999999999</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>59104.906194</v>
+        <v>59104.906194000003</v>
       </c>
       <c r="V14" s="1">
-        <v>16.418029</v>
+        <v>16.418029000000001</v>
       </c>
       <c r="W14" s="1">
-        <v>1210.000000</v>
+        <v>1210</v>
       </c>
       <c r="X14" s="1">
-        <v>-106.937000</v>
+        <v>-106.937</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>59115.427332</v>
+        <v>59115.427331999999</v>
       </c>
       <c r="AA14" s="1">
         <v>16.420952</v>
       </c>
       <c r="AB14" s="1">
-        <v>1217.390000</v>
+        <v>1217.3900000000001</v>
       </c>
       <c r="AC14" s="1">
-        <v>-90.395800</v>
+        <v>-90.395799999999994</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>59126.271368</v>
+        <v>59126.271368000002</v>
       </c>
       <c r="AF14" s="1">
-        <v>16.423964</v>
+        <v>16.423964000000002</v>
       </c>
       <c r="AG14" s="1">
-        <v>1222.120000</v>
+        <v>1222.1199999999999</v>
       </c>
       <c r="AH14" s="1">
-        <v>-86.061100</v>
+        <v>-86.061099999999996</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>59136.822269</v>
+        <v>59136.822268999997</v>
       </c>
       <c r="AK14" s="1">
-        <v>16.426895</v>
+        <v>16.426894999999998</v>
       </c>
       <c r="AL14" s="1">
-        <v>1229.250000</v>
+        <v>1229.25</v>
       </c>
       <c r="AM14" s="1">
-        <v>-89.780800</v>
+        <v>-89.780799999999999</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>59147.565115</v>
+        <v>59147.565114999998</v>
       </c>
       <c r="AP14" s="1">
         <v>16.429879</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1237.330000</v>
+        <v>1237.33</v>
       </c>
       <c r="AR14" s="1">
-        <v>-101.801000</v>
+        <v>-101.801</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
         <v>59158.607547</v>
       </c>
       <c r="AU14" s="1">
-        <v>16.432947</v>
+        <v>16.432946999999999</v>
       </c>
       <c r="AV14" s="1">
-        <v>1247.480000</v>
+        <v>1247.48</v>
       </c>
       <c r="AW14" s="1">
-        <v>-121.432000</v>
+        <v>-121.432</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
         <v>59169.894537</v>
       </c>
       <c r="AZ14" s="1">
-        <v>16.436082</v>
+        <v>16.436081999999999</v>
       </c>
       <c r="BA14" s="1">
-        <v>1256.040000</v>
+        <v>1256.04</v>
       </c>
       <c r="BB14" s="1">
-        <v>-139.031000</v>
+        <v>-139.03100000000001</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>59180.888374</v>
+        <v>59180.888374000002</v>
       </c>
       <c r="BE14" s="1">
-        <v>16.439136</v>
+        <v>16.439136000000001</v>
       </c>
       <c r="BF14" s="1">
-        <v>1296.830000</v>
+        <v>1296.83</v>
       </c>
       <c r="BG14" s="1">
-        <v>-221.253000</v>
+        <v>-221.25299999999999</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>59192.160449</v>
+        <v>59192.160449000003</v>
       </c>
       <c r="BJ14" s="1">
-        <v>16.442267</v>
+        <v>16.442267000000001</v>
       </c>
       <c r="BK14" s="1">
-        <v>1367.420000</v>
+        <v>1367.42</v>
       </c>
       <c r="BL14" s="1">
-        <v>-357.530000</v>
+        <v>-357.53</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>59203.656224</v>
+        <v>59203.656223999998</v>
       </c>
       <c r="BO14" s="1">
-        <v>16.445460</v>
+        <v>16.445460000000001</v>
       </c>
       <c r="BP14" s="1">
-        <v>1483.160000</v>
+        <v>1483.16</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-578.575000</v>
+        <v>-578.57500000000005</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>59215.455024</v>
+        <v>59215.455024000003</v>
       </c>
       <c r="BT14" s="1">
-        <v>16.448738</v>
+        <v>16.448737999999999</v>
       </c>
       <c r="BU14" s="1">
-        <v>1616.990000</v>
+        <v>1616.99</v>
       </c>
       <c r="BV14" s="1">
-        <v>-827.540000</v>
+        <v>-827.54</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>59226.336275</v>
+        <v>59226.336275000001</v>
       </c>
       <c r="BY14" s="1">
-        <v>16.451760</v>
+        <v>16.45176</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1769.940000</v>
+        <v>1769.94</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1097.100000</v>
+        <v>-1097.0999999999999</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>59238.415331</v>
+        <v>59238.415330999997</v>
       </c>
       <c r="CD14" s="1">
-        <v>16.455115</v>
+        <v>16.455114999999999</v>
       </c>
       <c r="CE14" s="1">
-        <v>2189.150000</v>
+        <v>2189.15</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1747.150000</v>
+        <v>-1747.15</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>59063.235305</v>
+        <v>59063.235305000002</v>
       </c>
       <c r="B15" s="1">
         <v>16.406454</v>
       </c>
       <c r="C15" s="1">
-        <v>1149.760000</v>
+        <v>1149.76</v>
       </c>
       <c r="D15" s="1">
-        <v>-253.862000</v>
+        <v>-253.86199999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>59074.023788</v>
+        <v>59074.023787999999</v>
       </c>
       <c r="G15" s="1">
-        <v>16.409451</v>
+        <v>16.409451000000001</v>
       </c>
       <c r="H15" s="1">
-        <v>1170.890000</v>
+        <v>1170.8900000000001</v>
       </c>
       <c r="I15" s="1">
-        <v>-212.786000</v>
+        <v>-212.786</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
         <v>59084.210133</v>
@@ -3852,375 +4268,375 @@
         <v>16.412281</v>
       </c>
       <c r="M15" s="1">
-        <v>1195.660000</v>
+        <v>1195.6600000000001</v>
       </c>
       <c r="N15" s="1">
-        <v>-147.887000</v>
+        <v>-147.887</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>59094.748672</v>
+        <v>59094.748672000002</v>
       </c>
       <c r="Q15" s="1">
         <v>16.415208</v>
       </c>
       <c r="R15" s="1">
-        <v>1202.890000</v>
+        <v>1202.8900000000001</v>
       </c>
       <c r="S15" s="1">
-        <v>-127.194000</v>
+        <v>-127.194</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>59105.593681</v>
+        <v>59105.593680999998</v>
       </c>
       <c r="V15" s="1">
-        <v>16.418220</v>
+        <v>16.418220000000002</v>
       </c>
       <c r="W15" s="1">
-        <v>1209.810000</v>
+        <v>1209.81</v>
       </c>
       <c r="X15" s="1">
-        <v>-106.947000</v>
+        <v>-106.947</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>59116.124744</v>
+        <v>59116.124744000001</v>
       </c>
       <c r="AA15" s="1">
         <v>16.421146</v>
       </c>
       <c r="AB15" s="1">
-        <v>1217.350000</v>
+        <v>1217.3499999999999</v>
       </c>
       <c r="AC15" s="1">
-        <v>-90.402900</v>
+        <v>-90.402900000000002</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>59126.616582</v>
+        <v>59126.616582000002</v>
       </c>
       <c r="AF15" s="1">
-        <v>16.424060</v>
+        <v>16.424060000000001</v>
       </c>
       <c r="AG15" s="1">
-        <v>1222.040000</v>
+        <v>1222.04</v>
       </c>
       <c r="AH15" s="1">
-        <v>-86.105000</v>
+        <v>-86.105000000000004</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>59137.171479</v>
+        <v>59137.171478999997</v>
       </c>
       <c r="AK15" s="1">
-        <v>16.426992</v>
+        <v>16.426991999999998</v>
       </c>
       <c r="AL15" s="1">
-        <v>1229.270000</v>
+        <v>1229.27</v>
       </c>
       <c r="AM15" s="1">
-        <v>-89.781700</v>
+        <v>-89.781700000000001</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>59147.923257</v>
+        <v>59147.923257000002</v>
       </c>
       <c r="AP15" s="1">
-        <v>16.429979</v>
+        <v>16.429978999999999</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1237.340000</v>
+        <v>1237.3399999999999</v>
       </c>
       <c r="AR15" s="1">
-        <v>-101.797000</v>
+        <v>-101.797</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>59159.280152</v>
+        <v>59159.280151999999</v>
       </c>
       <c r="AU15" s="1">
-        <v>16.433133</v>
+        <v>16.433133000000002</v>
       </c>
       <c r="AV15" s="1">
-        <v>1247.470000</v>
+        <v>1247.47</v>
       </c>
       <c r="AW15" s="1">
-        <v>-121.399000</v>
+        <v>-121.399</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>59170.331019</v>
+        <v>59170.331018999997</v>
       </c>
       <c r="AZ15" s="1">
-        <v>16.436203</v>
+        <v>16.436202999999999</v>
       </c>
       <c r="BA15" s="1">
-        <v>1256.050000</v>
+        <v>1256.05</v>
       </c>
       <c r="BB15" s="1">
-        <v>-139.024000</v>
+        <v>-139.024</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>59181.312945</v>
+        <v>59181.312944999998</v>
       </c>
       <c r="BE15" s="1">
-        <v>16.439254</v>
+        <v>16.439253999999998</v>
       </c>
       <c r="BF15" s="1">
-        <v>1296.850000</v>
+        <v>1296.8499999999999</v>
       </c>
       <c r="BG15" s="1">
-        <v>-221.254000</v>
+        <v>-221.25399999999999</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>59192.533902</v>
+        <v>59192.533902000003</v>
       </c>
       <c r="BJ15" s="1">
-        <v>16.442371</v>
+        <v>16.442371000000001</v>
       </c>
       <c r="BK15" s="1">
-        <v>1367.470000</v>
+        <v>1367.47</v>
       </c>
       <c r="BL15" s="1">
-        <v>-357.466000</v>
+        <v>-357.46600000000001</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>59204.079776</v>
+        <v>59204.079775999999</v>
       </c>
       <c r="BO15" s="1">
-        <v>16.445578</v>
+        <v>16.445578000000001</v>
       </c>
       <c r="BP15" s="1">
-        <v>1483.130000</v>
+        <v>1483.13</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-578.614000</v>
+        <v>-578.61400000000003</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>59215.881583</v>
+        <v>59215.881583000002</v>
       </c>
       <c r="BT15" s="1">
-        <v>16.448856</v>
+        <v>16.448855999999999</v>
       </c>
       <c r="BU15" s="1">
-        <v>1616.920000</v>
+        <v>1616.92</v>
       </c>
       <c r="BV15" s="1">
-        <v>-827.576000</v>
+        <v>-827.57600000000002</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>59226.786720</v>
+        <v>59226.786719999996</v>
       </c>
       <c r="BY15" s="1">
-        <v>16.451885</v>
+        <v>16.451885000000001</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1770.130000</v>
+        <v>1770.13</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1097.050000</v>
+        <v>-1097.05</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>59238.954017</v>
+        <v>59238.954016999996</v>
       </c>
       <c r="CD15" s="1">
-        <v>16.455265</v>
+        <v>16.455265000000001</v>
       </c>
       <c r="CE15" s="1">
-        <v>2191.620000</v>
+        <v>2191.62</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1747.370000</v>
+        <v>-1747.37</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>59063.575561</v>
+        <v>59063.575560999998</v>
       </c>
       <c r="B16" s="1">
-        <v>16.406549</v>
+        <v>16.406548999999998</v>
       </c>
       <c r="C16" s="1">
-        <v>1149.600000</v>
+        <v>1149.5999999999999</v>
       </c>
       <c r="D16" s="1">
-        <v>-254.096000</v>
+        <v>-254.096</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>59074.368043</v>
+        <v>59074.368043000002</v>
       </c>
       <c r="G16" s="1">
         <v>16.409547</v>
       </c>
       <c r="H16" s="1">
-        <v>1170.000000</v>
+        <v>1170</v>
       </c>
       <c r="I16" s="1">
-        <v>-212.195000</v>
+        <v>-212.19499999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>59084.906545</v>
+        <v>59084.906544999998</v>
       </c>
       <c r="L16" s="1">
         <v>16.412474</v>
       </c>
       <c r="M16" s="1">
-        <v>1195.760000</v>
+        <v>1195.76</v>
       </c>
       <c r="N16" s="1">
-        <v>-147.881000</v>
+        <v>-147.881</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>59095.445008</v>
+        <v>59095.445008000002</v>
       </c>
       <c r="Q16" s="1">
-        <v>16.415401</v>
+        <v>16.415400999999999</v>
       </c>
       <c r="R16" s="1">
-        <v>1202.920000</v>
+        <v>1202.92</v>
       </c>
       <c r="S16" s="1">
-        <v>-127.232000</v>
+        <v>-127.232</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>59105.936912</v>
+        <v>59105.936911999997</v>
       </c>
       <c r="V16" s="1">
-        <v>16.418316</v>
+        <v>16.418316000000001</v>
       </c>
       <c r="W16" s="1">
-        <v>1209.930000</v>
+        <v>1209.93</v>
       </c>
       <c r="X16" s="1">
-        <v>-106.637000</v>
+        <v>-106.637</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>59116.473396</v>
+        <v>59116.473396000001</v>
       </c>
       <c r="AA16" s="1">
         <v>16.421243</v>
       </c>
       <c r="AB16" s="1">
-        <v>1217.300000</v>
+        <v>1217.3</v>
       </c>
       <c r="AC16" s="1">
-        <v>-90.272700</v>
+        <v>-90.2727</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>59126.959317</v>
+        <v>59126.959317000001</v>
       </c>
       <c r="AF16" s="1">
-        <v>16.424155</v>
+        <v>16.424154999999999</v>
       </c>
       <c r="AG16" s="1">
-        <v>1222.080000</v>
+        <v>1222.08</v>
       </c>
       <c r="AH16" s="1">
-        <v>-86.163900</v>
+        <v>-86.163899999999998</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>59137.831126</v>
+        <v>59137.831125999997</v>
       </c>
       <c r="AK16" s="1">
-        <v>16.427175</v>
+        <v>16.427174999999998</v>
       </c>
       <c r="AL16" s="1">
-        <v>1229.220000</v>
+        <v>1229.22</v>
       </c>
       <c r="AM16" s="1">
-        <v>-89.764700</v>
+        <v>-89.764700000000005</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>59148.611176</v>
+        <v>59148.611175999999</v>
       </c>
       <c r="AP16" s="1">
-        <v>16.430170</v>
+        <v>16.43017</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1237.330000</v>
+        <v>1237.33</v>
       </c>
       <c r="AR16" s="1">
-        <v>-101.838000</v>
+        <v>-101.83799999999999</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>59159.702745</v>
+        <v>59159.702745000002</v>
       </c>
       <c r="AU16" s="1">
-        <v>16.433251</v>
+        <v>16.433250999999998</v>
       </c>
       <c r="AV16" s="1">
-        <v>1247.450000</v>
+        <v>1247.45</v>
       </c>
       <c r="AW16" s="1">
-        <v>-121.438000</v>
+        <v>-121.438</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
         <v>59170.696075</v>
@@ -4229,106 +4645,106 @@
         <v>16.436304</v>
       </c>
       <c r="BA16" s="1">
-        <v>1256.040000</v>
+        <v>1256.04</v>
       </c>
       <c r="BB16" s="1">
-        <v>-139.057000</v>
+        <v>-139.05699999999999</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
         <v>59181.675486</v>
       </c>
       <c r="BE16" s="1">
-        <v>16.439354</v>
+        <v>16.439354000000002</v>
       </c>
       <c r="BF16" s="1">
-        <v>1296.830000</v>
+        <v>1296.83</v>
       </c>
       <c r="BG16" s="1">
-        <v>-221.253000</v>
+        <v>-221.25299999999999</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>59192.908878</v>
+        <v>59192.908878000002</v>
       </c>
       <c r="BJ16" s="1">
-        <v>16.442475</v>
+        <v>16.442475000000002</v>
       </c>
       <c r="BK16" s="1">
-        <v>1367.450000</v>
+        <v>1367.45</v>
       </c>
       <c r="BL16" s="1">
-        <v>-357.464000</v>
+        <v>-357.464</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
         <v>59204.508318</v>
       </c>
       <c r="BO16" s="1">
-        <v>16.445697</v>
+        <v>16.445696999999999</v>
       </c>
       <c r="BP16" s="1">
-        <v>1483.130000</v>
+        <v>1483.13</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-578.579000</v>
+        <v>-578.57899999999995</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>59216.293760</v>
+        <v>59216.29376</v>
       </c>
       <c r="BT16" s="1">
-        <v>16.448970</v>
+        <v>16.448969999999999</v>
       </c>
       <c r="BU16" s="1">
-        <v>1617.000000</v>
+        <v>1617</v>
       </c>
       <c r="BV16" s="1">
-        <v>-827.631000</v>
+        <v>-827.63099999999997</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>59227.206240</v>
+        <v>59227.20624</v>
       </c>
       <c r="BY16" s="1">
         <v>16.452002</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1769.990000</v>
+        <v>1769.99</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1096.950000</v>
+        <v>-1096.95</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>59239.492640</v>
+        <v>59239.492639999997</v>
       </c>
       <c r="CD16" s="1">
-        <v>16.455415</v>
+        <v>16.455414999999999</v>
       </c>
       <c r="CE16" s="1">
-        <v>2190.200000</v>
+        <v>2190.1999999999998</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1746.160000</v>
+        <v>-1746.16</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
         <v>59063.918329</v>
       </c>
@@ -4336,405 +4752,405 @@
         <v>16.406644</v>
       </c>
       <c r="C17" s="1">
-        <v>1149.840000</v>
+        <v>1149.8399999999999</v>
       </c>
       <c r="D17" s="1">
-        <v>-254.086000</v>
+        <v>-254.08600000000001</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>59075.061449</v>
+        <v>59075.061449000001</v>
       </c>
       <c r="G17" s="1">
-        <v>16.409739</v>
+        <v>16.409738999999998</v>
       </c>
       <c r="H17" s="1">
-        <v>1170.200000</v>
+        <v>1170.2</v>
       </c>
       <c r="I17" s="1">
-        <v>-212.428000</v>
+        <v>-212.428</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>59085.251228</v>
+        <v>59085.251228000001</v>
       </c>
       <c r="L17" s="1">
-        <v>16.412570</v>
+        <v>16.412569999999999</v>
       </c>
       <c r="M17" s="1">
-        <v>1195.680000</v>
+        <v>1195.68</v>
       </c>
       <c r="N17" s="1">
-        <v>-147.979000</v>
+        <v>-147.97900000000001</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>59095.795182</v>
+        <v>59095.795182000002</v>
       </c>
       <c r="Q17" s="1">
-        <v>16.415499</v>
+        <v>16.415499000000001</v>
       </c>
       <c r="R17" s="1">
-        <v>1202.870000</v>
+        <v>1202.8699999999999</v>
       </c>
       <c r="S17" s="1">
-        <v>-127.204000</v>
+        <v>-127.20399999999999</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>59106.280738</v>
+        <v>59106.280738000001</v>
       </c>
       <c r="V17" s="1">
-        <v>16.418411</v>
+        <v>16.418410999999999</v>
       </c>
       <c r="W17" s="1">
-        <v>1209.750000</v>
+        <v>1209.75</v>
       </c>
       <c r="X17" s="1">
-        <v>-106.909000</v>
+        <v>-106.90900000000001</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
         <v>59117.137573</v>
       </c>
       <c r="AA17" s="1">
-        <v>16.421427</v>
+        <v>16.421427000000001</v>
       </c>
       <c r="AB17" s="1">
-        <v>1217.320000</v>
+        <v>1217.32</v>
       </c>
       <c r="AC17" s="1">
-        <v>-90.358300</v>
+        <v>-90.3583</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>59127.612307</v>
+        <v>59127.612307000003</v>
       </c>
       <c r="AF17" s="1">
-        <v>16.424337</v>
+        <v>16.424337000000001</v>
       </c>
       <c r="AG17" s="1">
-        <v>1222.110000</v>
+        <v>1222.1099999999999</v>
       </c>
       <c r="AH17" s="1">
-        <v>-86.077300</v>
+        <v>-86.077299999999994</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>59138.218999</v>
+        <v>59138.218998999997</v>
       </c>
       <c r="AK17" s="1">
-        <v>16.427283</v>
+        <v>16.427282999999999</v>
       </c>
       <c r="AL17" s="1">
-        <v>1229.210000</v>
+        <v>1229.21</v>
       </c>
       <c r="AM17" s="1">
-        <v>-89.778700</v>
+        <v>-89.778700000000001</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>59149.033768</v>
+        <v>59149.033768000001</v>
       </c>
       <c r="AP17" s="1">
         <v>16.430287</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1237.360000</v>
+        <v>1237.3599999999999</v>
       </c>
       <c r="AR17" s="1">
-        <v>-101.810000</v>
+        <v>-101.81</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>59160.065785</v>
+        <v>59160.065784999999</v>
       </c>
       <c r="AU17" s="1">
-        <v>16.433352</v>
+        <v>16.433351999999999</v>
       </c>
       <c r="AV17" s="1">
-        <v>1247.490000</v>
+        <v>1247.49</v>
       </c>
       <c r="AW17" s="1">
-        <v>-121.428000</v>
+        <v>-121.428</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>59171.053660</v>
+        <v>59171.053659999998</v>
       </c>
       <c r="AZ17" s="1">
         <v>16.436404</v>
       </c>
       <c r="BA17" s="1">
-        <v>1256.050000</v>
+        <v>1256.05</v>
       </c>
       <c r="BB17" s="1">
-        <v>-139.048000</v>
+        <v>-139.048</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>59182.216124</v>
+        <v>59182.216123999999</v>
       </c>
       <c r="BE17" s="1">
-        <v>16.439504</v>
+        <v>16.439503999999999</v>
       </c>
       <c r="BF17" s="1">
-        <v>1296.840000</v>
+        <v>1296.8399999999999</v>
       </c>
       <c r="BG17" s="1">
-        <v>-221.242000</v>
+        <v>-221.24199999999999</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>59193.340435</v>
+        <v>59193.340434999998</v>
       </c>
       <c r="BJ17" s="1">
-        <v>16.442595</v>
+        <v>16.442595000000001</v>
       </c>
       <c r="BK17" s="1">
-        <v>1367.460000</v>
+        <v>1367.46</v>
       </c>
       <c r="BL17" s="1">
-        <v>-357.445000</v>
+        <v>-357.44499999999999</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>59204.897710</v>
+        <v>59204.897709999997</v>
       </c>
       <c r="BO17" s="1">
         <v>16.445805</v>
       </c>
       <c r="BP17" s="1">
-        <v>1483.090000</v>
+        <v>1483.09</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-578.577000</v>
+        <v>-578.577</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>59216.722798</v>
+        <v>59216.722798000003</v>
       </c>
       <c r="BT17" s="1">
-        <v>16.449090</v>
+        <v>16.449090000000002</v>
       </c>
       <c r="BU17" s="1">
-        <v>1616.960000</v>
+        <v>1616.96</v>
       </c>
       <c r="BV17" s="1">
-        <v>-827.600000</v>
+        <v>-827.6</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>59227.630322</v>
+        <v>59227.630321999997</v>
       </c>
       <c r="BY17" s="1">
-        <v>16.452120</v>
+        <v>16.452120000000001</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1770.070000</v>
+        <v>1770.07</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1096.950000</v>
+        <v>-1096.95</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>59240.036255</v>
+        <v>59240.036254999999</v>
       </c>
       <c r="CD17" s="1">
-        <v>16.455566</v>
+        <v>16.455566000000001</v>
       </c>
       <c r="CE17" s="1">
-        <v>2190.360000</v>
+        <v>2190.36</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1748.370000</v>
+        <v>-1748.37</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>59064.596327</v>
+        <v>59064.596326999999</v>
       </c>
       <c r="B18" s="1">
-        <v>16.406832</v>
+        <v>16.406832000000001</v>
       </c>
       <c r="C18" s="1">
-        <v>1149.890000</v>
+        <v>1149.8900000000001</v>
       </c>
       <c r="D18" s="1">
-        <v>-253.924000</v>
+        <v>-253.92400000000001</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>59075.404195</v>
+        <v>59075.404195000003</v>
       </c>
       <c r="G18" s="1">
         <v>16.409834</v>
       </c>
       <c r="H18" s="1">
-        <v>1170.160000</v>
+        <v>1170.1600000000001</v>
       </c>
       <c r="I18" s="1">
-        <v>-213.095000</v>
+        <v>-213.095</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>59085.593996</v>
+        <v>59085.593996000003</v>
       </c>
       <c r="L18" s="1">
-        <v>16.412665</v>
+        <v>16.412665000000001</v>
       </c>
       <c r="M18" s="1">
-        <v>1195.480000</v>
+        <v>1195.48</v>
       </c>
       <c r="N18" s="1">
-        <v>-147.844000</v>
+        <v>-147.84399999999999</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>59096.144888</v>
+        <v>59096.144888000003</v>
       </c>
       <c r="Q18" s="1">
-        <v>16.415596</v>
+        <v>16.415596000000001</v>
       </c>
       <c r="R18" s="1">
-        <v>1202.860000</v>
+        <v>1202.8599999999999</v>
       </c>
       <c r="S18" s="1">
-        <v>-127.157000</v>
+        <v>-127.157</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>59106.945248</v>
+        <v>59106.945248000004</v>
       </c>
       <c r="V18" s="1">
-        <v>16.418596</v>
+        <v>16.418596000000001</v>
       </c>
       <c r="W18" s="1">
-        <v>1209.940000</v>
+        <v>1209.94</v>
       </c>
       <c r="X18" s="1">
-        <v>-106.735000</v>
+        <v>-106.735</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>59117.516977</v>
+        <v>59117.516976999999</v>
       </c>
       <c r="AA18" s="1">
-        <v>16.421532</v>
+        <v>16.421531999999999</v>
       </c>
       <c r="AB18" s="1">
-        <v>1217.390000</v>
+        <v>1217.3900000000001</v>
       </c>
       <c r="AC18" s="1">
-        <v>-90.447300</v>
+        <v>-90.447299999999998</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>59127.997445</v>
+        <v>59127.997445000001</v>
       </c>
       <c r="AF18" s="1">
-        <v>16.424444</v>
+        <v>16.424444000000001</v>
       </c>
       <c r="AG18" s="1">
-        <v>1222.040000</v>
+        <v>1222.04</v>
       </c>
       <c r="AH18" s="1">
-        <v>-86.119300</v>
+        <v>-86.119299999999996</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>59138.568677</v>
+        <v>59138.568677000003</v>
       </c>
       <c r="AK18" s="1">
-        <v>16.427380</v>
+        <v>16.427379999999999</v>
       </c>
       <c r="AL18" s="1">
-        <v>1229.220000</v>
+        <v>1229.22</v>
       </c>
       <c r="AM18" s="1">
-        <v>-89.806600</v>
+        <v>-89.806600000000003</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>59149.393865</v>
+        <v>59149.393864999998</v>
       </c>
       <c r="AP18" s="1">
         <v>16.430387</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1237.340000</v>
+        <v>1237.3399999999999</v>
       </c>
       <c r="AR18" s="1">
-        <v>-101.820000</v>
+        <v>-101.82</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>59160.428361</v>
+        <v>59160.428360999998</v>
       </c>
       <c r="AU18" s="1">
-        <v>16.433452</v>
+        <v>16.433451999999999</v>
       </c>
       <c r="AV18" s="1">
-        <v>1247.440000</v>
+        <v>1247.44</v>
       </c>
       <c r="AW18" s="1">
-        <v>-121.380000</v>
+        <v>-121.38</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
         <v>59171.466364</v>
@@ -4743,482 +5159,482 @@
         <v>16.436518</v>
       </c>
       <c r="BA18" s="1">
-        <v>1256.050000</v>
+        <v>1256.05</v>
       </c>
       <c r="BB18" s="1">
-        <v>-139.070000</v>
+        <v>-139.07</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>59182.398156</v>
+        <v>59182.398156000003</v>
       </c>
       <c r="BE18" s="1">
-        <v>16.439555</v>
+        <v>16.439554999999999</v>
       </c>
       <c r="BF18" s="1">
-        <v>1296.840000</v>
+        <v>1296.8399999999999</v>
       </c>
       <c r="BG18" s="1">
-        <v>-221.255000</v>
+        <v>-221.255</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>59193.664781</v>
+        <v>59193.664780999999</v>
       </c>
       <c r="BJ18" s="1">
-        <v>16.442685</v>
+        <v>16.442685000000001</v>
       </c>
       <c r="BK18" s="1">
-        <v>1367.480000</v>
+        <v>1367.48</v>
       </c>
       <c r="BL18" s="1">
-        <v>-357.439000</v>
+        <v>-357.43900000000002</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>59205.296461</v>
+        <v>59205.296460999998</v>
       </c>
       <c r="BO18" s="1">
         <v>16.445916</v>
       </c>
       <c r="BP18" s="1">
-        <v>1483.160000</v>
+        <v>1483.16</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-578.519000</v>
+        <v>-578.51900000000001</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>59217.149890</v>
+        <v>59217.149890000001</v>
       </c>
       <c r="BT18" s="1">
-        <v>16.449208</v>
+        <v>16.449207999999999</v>
       </c>
       <c r="BU18" s="1">
-        <v>1616.900000</v>
+        <v>1616.9</v>
       </c>
       <c r="BV18" s="1">
-        <v>-827.510000</v>
+        <v>-827.51</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>59228.077711</v>
+        <v>59228.077710999998</v>
       </c>
       <c r="BY18" s="1">
         <v>16.452244</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1770.240000</v>
+        <v>1770.24</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1097.120000</v>
+        <v>-1097.1199999999999</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>59240.571471</v>
+        <v>59240.571471000003</v>
       </c>
       <c r="CD18" s="1">
         <v>16.455714</v>
       </c>
       <c r="CE18" s="1">
-        <v>2191.470000</v>
+        <v>2191.4699999999998</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1745.980000</v>
+        <v>-1745.98</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>59064.943063</v>
+        <v>59064.943062999999</v>
       </c>
       <c r="B19" s="1">
-        <v>16.406929</v>
+        <v>16.406929000000002</v>
       </c>
       <c r="C19" s="1">
-        <v>1149.830000</v>
+        <v>1149.83</v>
       </c>
       <c r="D19" s="1">
-        <v>-253.551000</v>
+        <v>-253.55099999999999</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>59075.750856</v>
+        <v>59075.750855999999</v>
       </c>
       <c r="G19" s="1">
         <v>16.409931</v>
       </c>
       <c r="H19" s="1">
-        <v>1170.360000</v>
+        <v>1170.3599999999999</v>
       </c>
       <c r="I19" s="1">
-        <v>-212.875000</v>
+        <v>-212.875</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
         <v>59086.257115</v>
       </c>
       <c r="L19" s="1">
-        <v>16.412849</v>
+        <v>16.412849000000001</v>
       </c>
       <c r="M19" s="1">
-        <v>1195.490000</v>
+        <v>1195.49</v>
       </c>
       <c r="N19" s="1">
-        <v>-148.209000</v>
+        <v>-148.209</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>59096.804541</v>
+        <v>59096.804540999998</v>
       </c>
       <c r="Q19" s="1">
-        <v>16.415779</v>
+        <v>16.415779000000001</v>
       </c>
       <c r="R19" s="1">
-        <v>1202.960000</v>
+        <v>1202.96</v>
       </c>
       <c r="S19" s="1">
-        <v>-127.266000</v>
+        <v>-127.26600000000001</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>59107.320256</v>
+        <v>59107.320255999999</v>
       </c>
       <c r="V19" s="1">
-        <v>16.418700</v>
+        <v>16.418700000000001</v>
       </c>
       <c r="W19" s="1">
-        <v>1209.990000</v>
+        <v>1209.99</v>
       </c>
       <c r="X19" s="1">
-        <v>-107.016000</v>
+        <v>-107.01600000000001</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>59117.865665</v>
+        <v>59117.865664999998</v>
       </c>
       <c r="AA19" s="1">
-        <v>16.421629</v>
+        <v>16.421628999999999</v>
       </c>
       <c r="AB19" s="1">
-        <v>1217.320000</v>
+        <v>1217.32</v>
       </c>
       <c r="AC19" s="1">
-        <v>-90.448700</v>
+        <v>-90.448700000000002</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>59128.345421</v>
+        <v>59128.345420999998</v>
       </c>
       <c r="AF19" s="1">
-        <v>16.424540</v>
+        <v>16.42454</v>
       </c>
       <c r="AG19" s="1">
-        <v>1222.050000</v>
+        <v>1222.05</v>
       </c>
       <c r="AH19" s="1">
-        <v>-86.187900</v>
+        <v>-86.187899999999999</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>59138.914391</v>
+        <v>59138.914390999998</v>
       </c>
       <c r="AK19" s="1">
-        <v>16.427476</v>
+        <v>16.427475999999999</v>
       </c>
       <c r="AL19" s="1">
-        <v>1229.220000</v>
+        <v>1229.22</v>
       </c>
       <c r="AM19" s="1">
-        <v>-89.792500</v>
+        <v>-89.792500000000004</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>59149.818967</v>
+        <v>59149.818966999999</v>
       </c>
       <c r="AP19" s="1">
         <v>16.430505</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1237.350000</v>
+        <v>1237.3499999999999</v>
       </c>
       <c r="AR19" s="1">
-        <v>-101.848000</v>
+        <v>-101.848</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>59160.861895</v>
+        <v>59160.861895000002</v>
       </c>
       <c r="AU19" s="1">
-        <v>16.433573</v>
+        <v>16.433572999999999</v>
       </c>
       <c r="AV19" s="1">
-        <v>1247.490000</v>
+        <v>1247.49</v>
       </c>
       <c r="AW19" s="1">
-        <v>-121.405000</v>
+        <v>-121.405</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>59171.770379</v>
+        <v>59171.770379000001</v>
       </c>
       <c r="AZ19" s="1">
-        <v>16.436603</v>
+        <v>16.436603000000002</v>
       </c>
       <c r="BA19" s="1">
-        <v>1256.040000</v>
+        <v>1256.04</v>
       </c>
       <c r="BB19" s="1">
-        <v>-139.041000</v>
+        <v>-139.041</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>59182.755275</v>
+        <v>59182.755275000003</v>
       </c>
       <c r="BE19" s="1">
-        <v>16.439654</v>
+        <v>16.439654000000001</v>
       </c>
       <c r="BF19" s="1">
-        <v>1296.820000</v>
+        <v>1296.82</v>
       </c>
       <c r="BG19" s="1">
-        <v>-221.260000</v>
+        <v>-221.26</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>59194.056156</v>
+        <v>59194.056155999999</v>
       </c>
       <c r="BJ19" s="1">
-        <v>16.442793</v>
+        <v>16.442793000000002</v>
       </c>
       <c r="BK19" s="1">
-        <v>1367.430000</v>
+        <v>1367.43</v>
       </c>
       <c r="BL19" s="1">
-        <v>-357.479000</v>
+        <v>-357.47899999999998</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>59205.717595</v>
+        <v>59205.717595000002</v>
       </c>
       <c r="BO19" s="1">
         <v>16.446033</v>
       </c>
       <c r="BP19" s="1">
-        <v>1483.110000</v>
+        <v>1483.11</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-578.606000</v>
+        <v>-578.60599999999999</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>59217.565997</v>
+        <v>59217.565996999998</v>
       </c>
       <c r="BT19" s="1">
-        <v>16.449324</v>
+        <v>16.449324000000001</v>
       </c>
       <c r="BU19" s="1">
-        <v>1617.020000</v>
+        <v>1617.02</v>
       </c>
       <c r="BV19" s="1">
-        <v>-827.491000</v>
+        <v>-827.49099999999999</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>59228.506751</v>
+        <v>59228.506751000001</v>
       </c>
       <c r="BY19" s="1">
-        <v>16.452363</v>
+        <v>16.452362999999998</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1770.120000</v>
+        <v>1770.12</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1096.860000</v>
+        <v>-1096.8599999999999</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>59241.111615</v>
+        <v>59241.111615000002</v>
       </c>
       <c r="CD19" s="1">
-        <v>16.455864</v>
+        <v>16.455863999999998</v>
       </c>
       <c r="CE19" s="1">
-        <v>2188.780000</v>
+        <v>2188.7800000000002</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1747.360000</v>
+        <v>-1747.36</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>59065.284534</v>
+        <v>59065.284533999999</v>
       </c>
       <c r="B20" s="1">
-        <v>16.407023</v>
+        <v>16.407022999999999</v>
       </c>
       <c r="C20" s="1">
-        <v>1149.960000</v>
+        <v>1149.96</v>
       </c>
       <c r="D20" s="1">
-        <v>-253.872000</v>
+        <v>-253.87200000000001</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
         <v>59076.408056</v>
       </c>
       <c r="G20" s="1">
-        <v>16.410113</v>
+        <v>16.410112999999999</v>
       </c>
       <c r="H20" s="1">
-        <v>1170.260000</v>
+        <v>1170.26</v>
       </c>
       <c r="I20" s="1">
-        <v>-212.909000</v>
+        <v>-212.90899999999999</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>59086.631604</v>
+        <v>59086.631604000002</v>
       </c>
       <c r="L20" s="1">
-        <v>16.412953</v>
+        <v>16.412953000000002</v>
       </c>
       <c r="M20" s="1">
-        <v>1195.430000</v>
+        <v>1195.43</v>
       </c>
       <c r="N20" s="1">
-        <v>-148.057000</v>
+        <v>-148.05699999999999</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>59097.189437</v>
+        <v>59097.189437000001</v>
       </c>
       <c r="Q20" s="1">
         <v>16.415886</v>
       </c>
       <c r="R20" s="1">
-        <v>1203.020000</v>
+        <v>1203.02</v>
       </c>
       <c r="S20" s="1">
-        <v>-127.311000</v>
+        <v>-127.31100000000001</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>59107.667951</v>
+        <v>59107.667951000003</v>
       </c>
       <c r="V20" s="1">
-        <v>16.418797</v>
+        <v>16.418797000000001</v>
       </c>
       <c r="W20" s="1">
-        <v>1209.770000</v>
+        <v>1209.77</v>
       </c>
       <c r="X20" s="1">
-        <v>-106.929000</v>
+        <v>-106.929</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>59118.216833</v>
+        <v>59118.216832999999</v>
       </c>
       <c r="AA20" s="1">
-        <v>16.421727</v>
+        <v>16.421727000000001</v>
       </c>
       <c r="AB20" s="1">
-        <v>1217.490000</v>
+        <v>1217.49</v>
       </c>
       <c r="AC20" s="1">
-        <v>-90.331200</v>
+        <v>-90.331199999999995</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>59128.685928</v>
+        <v>59128.685927999999</v>
       </c>
       <c r="AF20" s="1">
-        <v>16.424635</v>
+        <v>16.424634999999999</v>
       </c>
       <c r="AG20" s="1">
-        <v>1222.070000</v>
+        <v>1222.07</v>
       </c>
       <c r="AH20" s="1">
-        <v>-86.129100</v>
+        <v>-86.129099999999994</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>59139.338010</v>
+        <v>59139.338009999999</v>
       </c>
       <c r="AK20" s="1">
-        <v>16.427594</v>
+        <v>16.427593999999999</v>
       </c>
       <c r="AL20" s="1">
-        <v>1229.230000</v>
+        <v>1229.23</v>
       </c>
       <c r="AM20" s="1">
-        <v>-89.790300</v>
+        <v>-89.790300000000002</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
         <v>59150.115542</v>
@@ -5227,28 +5643,28 @@
         <v>16.430588</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1237.320000</v>
+        <v>1237.32</v>
       </c>
       <c r="AR20" s="1">
-        <v>-101.838000</v>
+        <v>-101.83799999999999</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>59161.159465</v>
+        <v>59161.159464999997</v>
       </c>
       <c r="AU20" s="1">
-        <v>16.433655</v>
+        <v>16.433655000000002</v>
       </c>
       <c r="AV20" s="1">
-        <v>1247.450000</v>
+        <v>1247.45</v>
       </c>
       <c r="AW20" s="1">
-        <v>-121.405000</v>
+        <v>-121.405</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
         <v>59172.128524</v>
@@ -5257,120 +5673,120 @@
         <v>16.436702</v>
       </c>
       <c r="BA20" s="1">
-        <v>1256.030000</v>
+        <v>1256.03</v>
       </c>
       <c r="BB20" s="1">
-        <v>-139.036000</v>
+        <v>-139.036</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>59183.118378</v>
+        <v>59183.118377999999</v>
       </c>
       <c r="BE20" s="1">
-        <v>16.439755</v>
+        <v>16.439755000000002</v>
       </c>
       <c r="BF20" s="1">
-        <v>1296.870000</v>
+        <v>1296.8699999999999</v>
       </c>
       <c r="BG20" s="1">
-        <v>-221.262000</v>
+        <v>-221.262</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>59194.428620</v>
+        <v>59194.428619999999</v>
       </c>
       <c r="BJ20" s="1">
-        <v>16.442897</v>
+        <v>16.442896999999999</v>
       </c>
       <c r="BK20" s="1">
-        <v>1367.480000</v>
+        <v>1367.48</v>
       </c>
       <c r="BL20" s="1">
-        <v>-357.473000</v>
+        <v>-357.47300000000001</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>59206.533520</v>
+        <v>59206.533519999997</v>
       </c>
       <c r="BO20" s="1">
-        <v>16.446259</v>
+        <v>16.446259000000001</v>
       </c>
       <c r="BP20" s="1">
-        <v>1483.090000</v>
+        <v>1483.09</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-578.540000</v>
+        <v>-578.54</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
         <v>59217.995036</v>
       </c>
       <c r="BT20" s="1">
-        <v>16.449443</v>
+        <v>16.449442999999999</v>
       </c>
       <c r="BU20" s="1">
-        <v>1616.910000</v>
+        <v>1616.91</v>
       </c>
       <c r="BV20" s="1">
-        <v>-827.514000</v>
+        <v>-827.51400000000001</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>59228.929839</v>
+        <v>59228.929838999997</v>
       </c>
       <c r="BY20" s="1">
-        <v>16.452481</v>
+        <v>16.452480999999999</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1770.090000</v>
+        <v>1770.09</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1097.000000</v>
+        <v>-1097</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>59241.655694</v>
+        <v>59241.655694000001</v>
       </c>
       <c r="CD20" s="1">
-        <v>16.456015</v>
+        <v>16.456015000000001</v>
       </c>
       <c r="CE20" s="1">
-        <v>2191.810000</v>
+        <v>2191.81</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1746.870000</v>
+        <v>-1746.87</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
         <v>59065.947925</v>
       </c>
       <c r="B21" s="1">
-        <v>16.407208</v>
+        <v>16.407208000000001</v>
       </c>
       <c r="C21" s="1">
-        <v>1149.940000</v>
+        <v>1149.94</v>
       </c>
       <c r="D21" s="1">
-        <v>-254.094000</v>
+        <v>-254.09399999999999</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
         <v>59076.783529</v>
@@ -5379,241 +5795,241 @@
         <v>16.410218</v>
       </c>
       <c r="H21" s="1">
-        <v>1170.000000</v>
+        <v>1170</v>
       </c>
       <c r="I21" s="1">
-        <v>-212.410000</v>
+        <v>-212.41</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>59086.976324</v>
+        <v>59086.976324000003</v>
       </c>
       <c r="L21" s="1">
-        <v>16.413049</v>
+        <v>16.413049000000001</v>
       </c>
       <c r="M21" s="1">
-        <v>1195.420000</v>
+        <v>1195.42</v>
       </c>
       <c r="N21" s="1">
-        <v>-148.176000</v>
+        <v>-148.17599999999999</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>59097.538158</v>
+        <v>59097.538158000003</v>
       </c>
       <c r="Q21" s="1">
-        <v>16.415983</v>
+        <v>16.415983000000001</v>
       </c>
       <c r="R21" s="1">
-        <v>1203.020000</v>
+        <v>1203.02</v>
       </c>
       <c r="S21" s="1">
-        <v>-127.309000</v>
+        <v>-127.309</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>59108.007184</v>
+        <v>59108.007184000002</v>
       </c>
       <c r="V21" s="1">
-        <v>16.418891</v>
+        <v>16.418890999999999</v>
       </c>
       <c r="W21" s="1">
-        <v>1209.970000</v>
+        <v>1209.97</v>
       </c>
       <c r="X21" s="1">
-        <v>-106.825000</v>
+        <v>-106.825</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>59118.639424</v>
+        <v>59118.639424000001</v>
       </c>
       <c r="AA21" s="1">
         <v>16.421844</v>
       </c>
       <c r="AB21" s="1">
-        <v>1217.320000</v>
+        <v>1217.32</v>
       </c>
       <c r="AC21" s="1">
-        <v>-90.404400</v>
+        <v>-90.404399999999995</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>59129.112079</v>
+        <v>59129.112078999999</v>
       </c>
       <c r="AF21" s="1">
-        <v>16.424753</v>
+        <v>16.424752999999999</v>
       </c>
       <c r="AG21" s="1">
-        <v>1222.060000</v>
+        <v>1222.06</v>
       </c>
       <c r="AH21" s="1">
-        <v>-86.143500</v>
+        <v>-86.143500000000003</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>59139.611283</v>
+        <v>59139.611282999998</v>
       </c>
       <c r="AK21" s="1">
-        <v>16.427670</v>
+        <v>16.427669999999999</v>
       </c>
       <c r="AL21" s="1">
-        <v>1229.250000</v>
+        <v>1229.25</v>
       </c>
       <c r="AM21" s="1">
-        <v>-89.778700</v>
+        <v>-89.778700000000001</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>59150.476135</v>
+        <v>59150.476134999997</v>
       </c>
       <c r="AP21" s="1">
         <v>16.430688</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1237.330000</v>
+        <v>1237.33</v>
       </c>
       <c r="AR21" s="1">
-        <v>-101.823000</v>
+        <v>-101.82299999999999</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>59161.521544</v>
+        <v>59161.521544000003</v>
       </c>
       <c r="AU21" s="1">
-        <v>16.433756</v>
+        <v>16.433755999999999</v>
       </c>
       <c r="AV21" s="1">
-        <v>1247.460000</v>
+        <v>1247.46</v>
       </c>
       <c r="AW21" s="1">
-        <v>-121.417000</v>
+        <v>-121.417</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>59172.491392</v>
+        <v>59172.491392000004</v>
       </c>
       <c r="AZ21" s="1">
-        <v>16.436803</v>
+        <v>16.436803000000001</v>
       </c>
       <c r="BA21" s="1">
-        <v>1256.040000</v>
+        <v>1256.04</v>
       </c>
       <c r="BB21" s="1">
-        <v>-139.033000</v>
+        <v>-139.03299999999999</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>59183.840522</v>
+        <v>59183.840521999999</v>
       </c>
       <c r="BE21" s="1">
-        <v>16.439956</v>
+        <v>16.439955999999999</v>
       </c>
       <c r="BF21" s="1">
-        <v>1296.830000</v>
+        <v>1296.83</v>
       </c>
       <c r="BG21" s="1">
-        <v>-221.262000</v>
+        <v>-221.262</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>59195.180059</v>
+        <v>59195.180058999998</v>
       </c>
       <c r="BJ21" s="1">
         <v>16.443106</v>
       </c>
       <c r="BK21" s="1">
-        <v>1367.420000</v>
+        <v>1367.42</v>
       </c>
       <c r="BL21" s="1">
-        <v>-357.470000</v>
+        <v>-357.47</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>59206.950123</v>
+        <v>59206.950123000002</v>
       </c>
       <c r="BO21" s="1">
         <v>16.446375</v>
       </c>
       <c r="BP21" s="1">
-        <v>1483.120000</v>
+        <v>1483.12</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-578.576000</v>
+        <v>-578.57600000000002</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>59218.423085</v>
+        <v>59218.423085000002</v>
       </c>
       <c r="BT21" s="1">
         <v>16.449562</v>
       </c>
       <c r="BU21" s="1">
-        <v>1617.000000</v>
+        <v>1617</v>
       </c>
       <c r="BV21" s="1">
-        <v>-827.438000</v>
+        <v>-827.43799999999999</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>59229.351470</v>
+        <v>59229.351470000001</v>
       </c>
       <c r="BY21" s="1">
-        <v>16.452598</v>
+        <v>16.452597999999998</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1770.190000</v>
+        <v>1770.19</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1096.920000</v>
+        <v>-1096.92</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>59242.507820</v>
+        <v>59242.507819999999</v>
       </c>
       <c r="CD21" s="1">
-        <v>16.456252</v>
+        <v>16.456251999999999</v>
       </c>
       <c r="CE21" s="1">
-        <v>2189.950000</v>
+        <v>2189.9499999999998</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1748.380000</v>
+        <v>-1748.38</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
         <v>59066.310006</v>
       </c>
@@ -5621,285 +6037,285 @@
         <v>16.407308</v>
       </c>
       <c r="C22" s="1">
-        <v>1149.800000</v>
+        <v>1149.8</v>
       </c>
       <c r="D22" s="1">
-        <v>-253.907000</v>
+        <v>-253.90700000000001</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>59077.126789</v>
+        <v>59077.126789000002</v>
       </c>
       <c r="G22" s="1">
-        <v>16.410313</v>
+        <v>16.410312999999999</v>
       </c>
       <c r="H22" s="1">
-        <v>1169.780000</v>
+        <v>1169.78</v>
       </c>
       <c r="I22" s="1">
-        <v>-212.748000</v>
+        <v>-212.74799999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>59087.322027</v>
+        <v>59087.322027000002</v>
       </c>
       <c r="L22" s="1">
         <v>16.413145</v>
       </c>
       <c r="M22" s="1">
-        <v>1195.360000</v>
+        <v>1195.3599999999999</v>
       </c>
       <c r="N22" s="1">
-        <v>-148.053000</v>
+        <v>-148.053</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>59097.886812</v>
+        <v>59097.886811999997</v>
       </c>
       <c r="Q22" s="1">
-        <v>16.416080</v>
+        <v>16.416080000000001</v>
       </c>
       <c r="R22" s="1">
-        <v>1202.940000</v>
+        <v>1202.94</v>
       </c>
       <c r="S22" s="1">
-        <v>-127.289000</v>
+        <v>-127.289</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>59108.433247</v>
+        <v>59108.433247000001</v>
       </c>
       <c r="V22" s="1">
-        <v>16.419009</v>
+        <v>16.419008999999999</v>
       </c>
       <c r="W22" s="1">
-        <v>1209.850000</v>
+        <v>1209.8499999999999</v>
       </c>
       <c r="X22" s="1">
-        <v>-106.869000</v>
+        <v>-106.869</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>59118.911264</v>
+        <v>59118.911264000002</v>
       </c>
       <c r="AA22" s="1">
-        <v>16.421920</v>
+        <v>16.42192</v>
       </c>
       <c r="AB22" s="1">
-        <v>1217.410000</v>
+        <v>1217.4100000000001</v>
       </c>
       <c r="AC22" s="1">
-        <v>-90.310600</v>
+        <v>-90.310599999999994</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>59129.384259</v>
+        <v>59129.384258999999</v>
       </c>
       <c r="AF22" s="1">
-        <v>16.424829</v>
+        <v>16.424828999999999</v>
       </c>
       <c r="AG22" s="1">
-        <v>1222.090000</v>
+        <v>1222.0899999999999</v>
       </c>
       <c r="AH22" s="1">
-        <v>-86.147600</v>
+        <v>-86.147599999999997</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
         <v>59139.960948</v>
       </c>
       <c r="AK22" s="1">
-        <v>16.427767</v>
+        <v>16.427766999999999</v>
       </c>
       <c r="AL22" s="1">
-        <v>1229.230000</v>
+        <v>1229.23</v>
       </c>
       <c r="AM22" s="1">
-        <v>-89.735500</v>
+        <v>-89.735500000000002</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>59150.844165</v>
+        <v>59150.844165000002</v>
       </c>
       <c r="AP22" s="1">
-        <v>16.430790</v>
+        <v>16.430789999999998</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1237.320000</v>
+        <v>1237.32</v>
       </c>
       <c r="AR22" s="1">
-        <v>-101.829000</v>
+        <v>-101.82899999999999</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>59161.889611</v>
+        <v>59161.889610999999</v>
       </c>
       <c r="AU22" s="1">
-        <v>16.433858</v>
+        <v>16.433858000000001</v>
       </c>
       <c r="AV22" s="1">
-        <v>1247.440000</v>
+        <v>1247.44</v>
       </c>
       <c r="AW22" s="1">
-        <v>-121.396000</v>
+        <v>-121.396</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>59173.208280</v>
+        <v>59173.208279999999</v>
       </c>
       <c r="AZ22" s="1">
         <v>16.437002</v>
       </c>
       <c r="BA22" s="1">
-        <v>1256.020000</v>
+        <v>1256.02</v>
       </c>
       <c r="BB22" s="1">
-        <v>-139.032000</v>
+        <v>-139.03200000000001</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>59184.197146</v>
+        <v>59184.197145999999</v>
       </c>
       <c r="BE22" s="1">
-        <v>16.440055</v>
+        <v>16.440055000000001</v>
       </c>
       <c r="BF22" s="1">
-        <v>1296.830000</v>
+        <v>1296.83</v>
       </c>
       <c r="BG22" s="1">
-        <v>-221.269000</v>
+        <v>-221.26900000000001</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>59195.555530</v>
+        <v>59195.555529999998</v>
       </c>
       <c r="BJ22" s="1">
-        <v>16.443210</v>
+        <v>16.443210000000001</v>
       </c>
       <c r="BK22" s="1">
-        <v>1367.460000</v>
+        <v>1367.46</v>
       </c>
       <c r="BL22" s="1">
-        <v>-357.484000</v>
+        <v>-357.48399999999998</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>59207.347947</v>
+        <v>59207.347947000002</v>
       </c>
       <c r="BO22" s="1">
         <v>16.446486</v>
       </c>
       <c r="BP22" s="1">
-        <v>1483.160000</v>
+        <v>1483.16</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-578.587000</v>
+        <v>-578.58699999999999</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>59219.142284</v>
+        <v>59219.142284000001</v>
       </c>
       <c r="BT22" s="1">
         <v>16.449762</v>
       </c>
       <c r="BU22" s="1">
-        <v>1616.970000</v>
+        <v>1616.97</v>
       </c>
       <c r="BV22" s="1">
-        <v>-827.377000</v>
+        <v>-827.37699999999995</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
         <v>59230.085517</v>
       </c>
       <c r="BY22" s="1">
-        <v>16.452802</v>
+        <v>16.452801999999998</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1770.180000</v>
+        <v>1770.18</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1097.030000</v>
+        <v>-1097.03</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>59242.732510</v>
+        <v>59242.732510000002</v>
       </c>
       <c r="CD22" s="1">
         <v>16.456315</v>
       </c>
       <c r="CE22" s="1">
-        <v>2189.980000</v>
+        <v>2189.98</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1748.130000</v>
+        <v>-1748.13</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>59066.706806</v>
+        <v>59066.706806000002</v>
       </c>
       <c r="B23" s="1">
-        <v>16.407419</v>
+        <v>16.407419000000001</v>
       </c>
       <c r="C23" s="1">
-        <v>1149.830000</v>
+        <v>1149.83</v>
       </c>
       <c r="D23" s="1">
-        <v>-253.998000</v>
+        <v>-253.99799999999999</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>59077.471520</v>
+        <v>59077.471519999999</v>
       </c>
       <c r="G23" s="1">
-        <v>16.410409</v>
+        <v>16.410409000000001</v>
       </c>
       <c r="H23" s="1">
-        <v>1169.890000</v>
+        <v>1169.8900000000001</v>
       </c>
       <c r="I23" s="1">
-        <v>-212.932000</v>
+        <v>-212.93199999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
         <v>59087.732418</v>
@@ -5908,43 +6324,43 @@
         <v>16.413259</v>
       </c>
       <c r="M23" s="1">
-        <v>1195.370000</v>
+        <v>1195.3699999999999</v>
       </c>
       <c r="N23" s="1">
-        <v>-148.595000</v>
+        <v>-148.595</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>59098.316843</v>
+        <v>59098.316843000001</v>
       </c>
       <c r="Q23" s="1">
-        <v>16.416199</v>
+        <v>16.416198999999999</v>
       </c>
       <c r="R23" s="1">
-        <v>1202.960000</v>
+        <v>1202.96</v>
       </c>
       <c r="S23" s="1">
-        <v>-127.295000</v>
+        <v>-127.295</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
         <v>59108.707037</v>
       </c>
       <c r="V23" s="1">
-        <v>16.419085</v>
+        <v>16.419084999999999</v>
       </c>
       <c r="W23" s="1">
-        <v>1209.710000</v>
+        <v>1209.71</v>
       </c>
       <c r="X23" s="1">
-        <v>-106.940000</v>
+        <v>-106.94</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
         <v>59119.262896</v>
@@ -5953,181 +6369,181 @@
         <v>16.422017</v>
       </c>
       <c r="AB23" s="1">
-        <v>1217.420000</v>
+        <v>1217.42</v>
       </c>
       <c r="AC23" s="1">
-        <v>-90.314500</v>
+        <v>-90.314499999999995</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>59129.727521</v>
+        <v>59129.727521000001</v>
       </c>
       <c r="AF23" s="1">
-        <v>16.424924</v>
+        <v>16.424924000000001</v>
       </c>
       <c r="AG23" s="1">
-        <v>1222.060000</v>
+        <v>1222.06</v>
       </c>
       <c r="AH23" s="1">
-        <v>-86.122500</v>
+        <v>-86.122500000000002</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>59140.311195</v>
+        <v>59140.311195000002</v>
       </c>
       <c r="AK23" s="1">
         <v>16.427864</v>
       </c>
       <c r="AL23" s="1">
-        <v>1229.250000</v>
+        <v>1229.25</v>
       </c>
       <c r="AM23" s="1">
-        <v>-89.596800</v>
+        <v>-89.596800000000002</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>59151.562379</v>
+        <v>59151.562379000003</v>
       </c>
       <c r="AP23" s="1">
-        <v>16.430990</v>
+        <v>16.430990000000001</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1237.330000</v>
+        <v>1237.33</v>
       </c>
       <c r="AR23" s="1">
-        <v>-101.818000</v>
+        <v>-101.818</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>59162.617703</v>
+        <v>59162.617703000004</v>
       </c>
       <c r="AU23" s="1">
-        <v>16.434060</v>
+        <v>16.434059999999999</v>
       </c>
       <c r="AV23" s="1">
-        <v>1247.460000</v>
+        <v>1247.46</v>
       </c>
       <c r="AW23" s="1">
-        <v>-121.390000</v>
+        <v>-121.39</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>59173.565927</v>
+        <v>59173.565927000003</v>
       </c>
       <c r="AZ23" s="1">
-        <v>16.437102</v>
+        <v>16.437101999999999</v>
       </c>
       <c r="BA23" s="1">
-        <v>1256.020000</v>
+        <v>1256.02</v>
       </c>
       <c r="BB23" s="1">
-        <v>-139.046000</v>
+        <v>-139.04599999999999</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>59184.562201</v>
+        <v>59184.562201000001</v>
       </c>
       <c r="BE23" s="1">
-        <v>16.440156</v>
+        <v>16.440156000000002</v>
       </c>
       <c r="BF23" s="1">
-        <v>1296.830000</v>
+        <v>1296.83</v>
       </c>
       <c r="BG23" s="1">
-        <v>-221.279000</v>
+        <v>-221.279</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
         <v>59195.930042</v>
       </c>
       <c r="BJ23" s="1">
-        <v>16.443314</v>
+        <v>16.443314000000001</v>
       </c>
       <c r="BK23" s="1">
-        <v>1367.450000</v>
+        <v>1367.45</v>
       </c>
       <c r="BL23" s="1">
-        <v>-357.446000</v>
+        <v>-357.44600000000003</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>59208.084012</v>
+        <v>59208.084011999999</v>
       </c>
       <c r="BO23" s="1">
-        <v>16.446690</v>
+        <v>16.44669</v>
       </c>
       <c r="BP23" s="1">
-        <v>1483.100000</v>
+        <v>1483.1</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-578.551000</v>
+        <v>-578.55100000000004</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>59219.264795</v>
+        <v>59219.264795000003</v>
       </c>
       <c r="BT23" s="1">
-        <v>16.449796</v>
+        <v>16.449795999999999</v>
       </c>
       <c r="BU23" s="1">
-        <v>1617.100000</v>
+        <v>1617.1</v>
       </c>
       <c r="BV23" s="1">
-        <v>-827.361000</v>
+        <v>-827.36099999999999</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>59230.195630</v>
+        <v>59230.195630000002</v>
       </c>
       <c r="BY23" s="1">
-        <v>16.452832</v>
+        <v>16.452832000000001</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1770.180000</v>
+        <v>1770.18</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1096.940000</v>
+        <v>-1096.94</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>59243.252811</v>
+        <v>59243.252810999998</v>
       </c>
       <c r="CD23" s="1">
-        <v>16.456459</v>
+        <v>16.456458999999999</v>
       </c>
       <c r="CE23" s="1">
-        <v>2191.930000</v>
+        <v>2191.9299999999998</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1747.720000</v>
+        <v>-1747.72</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
         <v>59067.019301</v>
       </c>
@@ -6135,420 +6551,420 @@
         <v>16.407505</v>
       </c>
       <c r="C24" s="1">
-        <v>1149.980000</v>
+        <v>1149.98</v>
       </c>
       <c r="D24" s="1">
-        <v>-253.670000</v>
+        <v>-253.67</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>59077.898070</v>
+        <v>59077.898070000003</v>
       </c>
       <c r="G24" s="1">
-        <v>16.410527</v>
+        <v>16.410526999999998</v>
       </c>
       <c r="H24" s="1">
-        <v>1169.720000</v>
+        <v>1169.72</v>
       </c>
       <c r="I24" s="1">
-        <v>-213.082000</v>
+        <v>-213.08199999999999</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>59088.023865</v>
+        <v>59088.023865000003</v>
       </c>
       <c r="L24" s="1">
-        <v>16.413340</v>
+        <v>16.413340000000002</v>
       </c>
       <c r="M24" s="1">
-        <v>1195.520000</v>
+        <v>1195.52</v>
       </c>
       <c r="N24" s="1">
-        <v>-148.509000</v>
+        <v>-148.50899999999999</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>59098.593612</v>
+        <v>59098.593611999997</v>
       </c>
       <c r="Q24" s="1">
         <v>16.416276</v>
       </c>
       <c r="R24" s="1">
-        <v>1202.930000</v>
+        <v>1202.93</v>
       </c>
       <c r="S24" s="1">
-        <v>-127.300000</v>
+        <v>-127.3</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>59109.051261</v>
+        <v>59109.051261000001</v>
       </c>
       <c r="V24" s="1">
-        <v>16.419181</v>
+        <v>16.419180999999998</v>
       </c>
       <c r="W24" s="1">
-        <v>1210.050000</v>
+        <v>1210.05</v>
       </c>
       <c r="X24" s="1">
-        <v>-106.829000</v>
+        <v>-106.82899999999999</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>59119.611614</v>
+        <v>59119.611614000001</v>
       </c>
       <c r="AA24" s="1">
-        <v>16.422114</v>
+        <v>16.422114000000001</v>
       </c>
       <c r="AB24" s="1">
-        <v>1217.390000</v>
+        <v>1217.3900000000001</v>
       </c>
       <c r="AC24" s="1">
-        <v>-90.349600</v>
+        <v>-90.349599999999995</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>59130.075682</v>
+        <v>59130.075682000002</v>
       </c>
       <c r="AF24" s="1">
-        <v>16.425021</v>
+        <v>16.425021000000001</v>
       </c>
       <c r="AG24" s="1">
-        <v>1222.060000</v>
+        <v>1222.06</v>
       </c>
       <c r="AH24" s="1">
-        <v>-86.150300</v>
+        <v>-86.150300000000001</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>59141.008502</v>
+        <v>59141.008501999997</v>
       </c>
       <c r="AK24" s="1">
         <v>16.428058</v>
       </c>
       <c r="AL24" s="1">
-        <v>1229.250000</v>
+        <v>1229.25</v>
       </c>
       <c r="AM24" s="1">
-        <v>-89.607700</v>
+        <v>-89.607699999999994</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>59151.942804</v>
+        <v>59151.942803999998</v>
       </c>
       <c r="AP24" s="1">
-        <v>16.431095</v>
+        <v>16.431094999999999</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1237.340000</v>
+        <v>1237.3399999999999</v>
       </c>
       <c r="AR24" s="1">
-        <v>-101.813000</v>
+        <v>-101.813</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>59163.007557</v>
+        <v>59163.007556999997</v>
       </c>
       <c r="AU24" s="1">
-        <v>16.434169</v>
+        <v>16.434169000000001</v>
       </c>
       <c r="AV24" s="1">
-        <v>1247.430000</v>
+        <v>1247.43</v>
       </c>
       <c r="AW24" s="1">
-        <v>-121.384000</v>
+        <v>-121.384</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>59173.926487</v>
+        <v>59173.926486999997</v>
       </c>
       <c r="AZ24" s="1">
-        <v>16.437202</v>
+        <v>16.437201999999999</v>
       </c>
       <c r="BA24" s="1">
-        <v>1256.050000</v>
+        <v>1256.05</v>
       </c>
       <c r="BB24" s="1">
-        <v>-139.031000</v>
+        <v>-139.03100000000001</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>59185.235272</v>
+        <v>59185.235271999998</v>
       </c>
       <c r="BE24" s="1">
-        <v>16.440343</v>
+        <v>16.440342999999999</v>
       </c>
       <c r="BF24" s="1">
-        <v>1296.830000</v>
+        <v>1296.83</v>
       </c>
       <c r="BG24" s="1">
-        <v>-221.268000</v>
+        <v>-221.268</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>59196.617961</v>
+        <v>59196.617961000004</v>
       </c>
       <c r="BJ24" s="1">
-        <v>16.443505</v>
+        <v>16.443504999999998</v>
       </c>
       <c r="BK24" s="1">
-        <v>1367.450000</v>
+        <v>1367.45</v>
       </c>
       <c r="BL24" s="1">
-        <v>-357.426000</v>
+        <v>-357.42599999999999</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>59208.586459</v>
+        <v>59208.586458999998</v>
       </c>
       <c r="BO24" s="1">
-        <v>16.446830</v>
+        <v>16.446829999999999</v>
       </c>
       <c r="BP24" s="1">
-        <v>1483.150000</v>
+        <v>1483.15</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-578.489000</v>
+        <v>-578.48900000000003</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>59219.704746</v>
+        <v>59219.704746000003</v>
       </c>
       <c r="BT24" s="1">
         <v>16.449918</v>
       </c>
       <c r="BU24" s="1">
-        <v>1616.960000</v>
+        <v>1616.96</v>
       </c>
       <c r="BV24" s="1">
-        <v>-827.323000</v>
+        <v>-827.32299999999998</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>59230.631614</v>
+        <v>59230.631613999998</v>
       </c>
       <c r="BY24" s="1">
-        <v>16.452953</v>
+        <v>16.452953000000001</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1770.070000</v>
+        <v>1770.07</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1096.950000</v>
+        <v>-1096.95</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>59243.770176</v>
+        <v>59243.770175999998</v>
       </c>
       <c r="CD24" s="1">
-        <v>16.456603</v>
+        <v>16.456603000000001</v>
       </c>
       <c r="CE24" s="1">
-        <v>2191.030000</v>
+        <v>2191.0300000000002</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1747.870000</v>
+        <v>-1747.87</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>59067.704755</v>
+        <v>59067.704754999999</v>
       </c>
       <c r="B25" s="1">
-        <v>16.407696</v>
+        <v>16.407696000000001</v>
       </c>
       <c r="C25" s="1">
-        <v>1149.550000</v>
+        <v>1149.55</v>
       </c>
       <c r="D25" s="1">
-        <v>-253.941000</v>
+        <v>-253.941</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>59078.169878</v>
+        <v>59078.169878000001</v>
       </c>
       <c r="G25" s="1">
-        <v>16.410603</v>
+        <v>16.410602999999998</v>
       </c>
       <c r="H25" s="1">
-        <v>1170.000000</v>
+        <v>1170</v>
       </c>
       <c r="I25" s="1">
-        <v>-212.336000</v>
+        <v>-212.33600000000001</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>59088.368599</v>
+        <v>59088.368599000001</v>
       </c>
       <c r="L25" s="1">
-        <v>16.413436</v>
+        <v>16.413436000000001</v>
       </c>
       <c r="M25" s="1">
-        <v>1195.050000</v>
+        <v>1195.05</v>
       </c>
       <c r="N25" s="1">
-        <v>-148.674000</v>
+        <v>-148.67400000000001</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>59098.944778</v>
+        <v>59098.944777999997</v>
       </c>
       <c r="Q25" s="1">
-        <v>16.416374</v>
+        <v>16.416374000000001</v>
       </c>
       <c r="R25" s="1">
-        <v>1203.000000</v>
+        <v>1203</v>
       </c>
       <c r="S25" s="1">
-        <v>-127.247000</v>
+        <v>-127.247</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>59109.394522</v>
+        <v>59109.394522000002</v>
       </c>
       <c r="V25" s="1">
         <v>16.419276</v>
       </c>
       <c r="W25" s="1">
-        <v>1209.940000</v>
+        <v>1209.94</v>
       </c>
       <c r="X25" s="1">
-        <v>-106.900000</v>
+        <v>-106.9</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>59120.310943</v>
+        <v>59120.310942999997</v>
       </c>
       <c r="AA25" s="1">
-        <v>16.422309</v>
+        <v>16.422308999999998</v>
       </c>
       <c r="AB25" s="1">
-        <v>1217.540000</v>
+        <v>1217.54</v>
       </c>
       <c r="AC25" s="1">
-        <v>-90.289800</v>
+        <v>-90.2898</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>59130.769585</v>
+        <v>59130.769585000002</v>
       </c>
       <c r="AF25" s="1">
         <v>16.425214</v>
       </c>
       <c r="AG25" s="1">
-        <v>1222.020000</v>
+        <v>1222.02</v>
       </c>
       <c r="AH25" s="1">
-        <v>-86.122400</v>
+        <v>-86.122399999999999</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
         <v>59141.351767</v>
       </c>
       <c r="AK25" s="1">
-        <v>16.428153</v>
+        <v>16.428152999999998</v>
       </c>
       <c r="AL25" s="1">
-        <v>1229.270000</v>
+        <v>1229.27</v>
       </c>
       <c r="AM25" s="1">
-        <v>-89.605500</v>
+        <v>-89.605500000000006</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
         <v>59152.319765</v>
       </c>
       <c r="AP25" s="1">
-        <v>16.431200</v>
+        <v>16.4312</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1237.350000</v>
+        <v>1237.3499999999999</v>
       </c>
       <c r="AR25" s="1">
-        <v>-101.850000</v>
+        <v>-101.85</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>59163.375643</v>
+        <v>59163.375642999999</v>
       </c>
       <c r="AU25" s="1">
-        <v>16.434271</v>
+        <v>16.434270999999999</v>
       </c>
       <c r="AV25" s="1">
-        <v>1247.440000</v>
+        <v>1247.44</v>
       </c>
       <c r="AW25" s="1">
-        <v>-121.421000</v>
+        <v>-121.42100000000001</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>59174.598566</v>
+        <v>59174.598566000001</v>
       </c>
       <c r="AZ25" s="1">
-        <v>16.437388</v>
+        <v>16.437387999999999</v>
       </c>
       <c r="BA25" s="1">
-        <v>1256.020000</v>
+        <v>1256.02</v>
       </c>
       <c r="BB25" s="1">
-        <v>-139.026000</v>
+        <v>-139.02600000000001</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
         <v>59185.674756</v>
@@ -6557,270 +6973,270 @@
         <v>16.440465</v>
       </c>
       <c r="BF25" s="1">
-        <v>1296.840000</v>
+        <v>1296.8399999999999</v>
       </c>
       <c r="BG25" s="1">
-        <v>-221.262000</v>
+        <v>-221.262</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>59197.054937</v>
+        <v>59197.054937000001</v>
       </c>
       <c r="BJ25" s="1">
-        <v>16.443626</v>
+        <v>16.443625999999998</v>
       </c>
       <c r="BK25" s="1">
-        <v>1367.430000</v>
+        <v>1367.43</v>
       </c>
       <c r="BL25" s="1">
-        <v>-357.521000</v>
+        <v>-357.52100000000002</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>59209.006538</v>
+        <v>59209.006538000001</v>
       </c>
       <c r="BO25" s="1">
-        <v>16.446946</v>
+        <v>16.446946000000001</v>
       </c>
       <c r="BP25" s="1">
-        <v>1483.050000</v>
+        <v>1483.05</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-578.534000</v>
+        <v>-578.53399999999999</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>59220.129322</v>
+        <v>59220.129322000001</v>
       </c>
       <c r="BT25" s="1">
-        <v>16.450036</v>
+        <v>16.450036000000001</v>
       </c>
       <c r="BU25" s="1">
-        <v>1616.970000</v>
+        <v>1616.97</v>
       </c>
       <c r="BV25" s="1">
-        <v>-827.334000</v>
+        <v>-827.33399999999995</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>59231.086191</v>
+        <v>59231.086191000002</v>
       </c>
       <c r="BY25" s="1">
-        <v>16.453079</v>
+        <v>16.453078999999999</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1770.030000</v>
+        <v>1770.03</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1097.040000</v>
+        <v>-1097.04</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>59244.333594</v>
+        <v>59244.333594000003</v>
       </c>
       <c r="CD25" s="1">
-        <v>16.456759</v>
+        <v>16.456759000000002</v>
       </c>
       <c r="CE25" s="1">
-        <v>2189.670000</v>
+        <v>2189.67</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1748.270000</v>
+        <v>-1748.27</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>59068.052948</v>
+        <v>59068.052947999997</v>
       </c>
       <c r="B26" s="1">
-        <v>16.407792</v>
+        <v>16.407792000000001</v>
       </c>
       <c r="C26" s="1">
-        <v>1149.950000</v>
+        <v>1149.95</v>
       </c>
       <c r="D26" s="1">
-        <v>-254.022000</v>
+        <v>-254.02199999999999</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>59078.515557</v>
+        <v>59078.515556999999</v>
       </c>
       <c r="G26" s="1">
-        <v>16.410699</v>
+        <v>16.410699000000001</v>
       </c>
       <c r="H26" s="1">
-        <v>1169.300000</v>
+        <v>1169.3</v>
       </c>
       <c r="I26" s="1">
-        <v>-212.929000</v>
+        <v>-212.929</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>59088.716281</v>
+        <v>59088.716281000001</v>
       </c>
       <c r="L26" s="1">
         <v>16.413532</v>
       </c>
       <c r="M26" s="1">
-        <v>1195.400000</v>
+        <v>1195.4000000000001</v>
       </c>
       <c r="N26" s="1">
-        <v>-148.430000</v>
+        <v>-148.43</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>59099.294000</v>
+        <v>59099.294000000002</v>
       </c>
       <c r="Q26" s="1">
-        <v>16.416471</v>
+        <v>16.416471000000001</v>
       </c>
       <c r="R26" s="1">
-        <v>1202.990000</v>
+        <v>1202.99</v>
       </c>
       <c r="S26" s="1">
-        <v>-127.319000</v>
+        <v>-127.319</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>59110.079468</v>
+        <v>59110.079468000004</v>
       </c>
       <c r="V26" s="1">
-        <v>16.419467</v>
+        <v>16.419467000000001</v>
       </c>
       <c r="W26" s="1">
-        <v>1209.800000</v>
+        <v>1209.8</v>
       </c>
       <c r="X26" s="1">
-        <v>-106.722000</v>
+        <v>-106.72199999999999</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>59120.658178</v>
+        <v>59120.658177999998</v>
       </c>
       <c r="AA26" s="1">
-        <v>16.422405</v>
+        <v>16.422405000000001</v>
       </c>
       <c r="AB26" s="1">
-        <v>1217.370000</v>
+        <v>1217.3699999999999</v>
       </c>
       <c r="AC26" s="1">
-        <v>-90.350100</v>
+        <v>-90.350099999999998</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>59131.113807</v>
+        <v>59131.113807000002</v>
       </c>
       <c r="AF26" s="1">
-        <v>16.425309</v>
+        <v>16.425308999999999</v>
       </c>
       <c r="AG26" s="1">
-        <v>1222.080000</v>
+        <v>1222.08</v>
       </c>
       <c r="AH26" s="1">
-        <v>-86.153800</v>
+        <v>-86.153800000000004</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>59141.704421</v>
+        <v>59141.704421000002</v>
       </c>
       <c r="AK26" s="1">
-        <v>16.428251</v>
+        <v>16.428250999999999</v>
       </c>
       <c r="AL26" s="1">
-        <v>1229.230000</v>
+        <v>1229.23</v>
       </c>
       <c r="AM26" s="1">
-        <v>-89.644000</v>
+        <v>-89.644000000000005</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>59152.996342</v>
+        <v>59152.996341999999</v>
       </c>
       <c r="AP26" s="1">
-        <v>16.431388</v>
+        <v>16.431387999999998</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1237.310000</v>
+        <v>1237.31</v>
       </c>
       <c r="AR26" s="1">
-        <v>-101.844000</v>
+        <v>-101.84399999999999</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>59164.052168</v>
+        <v>59164.052168000002</v>
       </c>
       <c r="AU26" s="1">
         <v>16.434459</v>
       </c>
       <c r="AV26" s="1">
-        <v>1247.420000</v>
+        <v>1247.42</v>
       </c>
       <c r="AW26" s="1">
-        <v>-121.416000</v>
+        <v>-121.416</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>59175.034089</v>
+        <v>59175.034089000001</v>
       </c>
       <c r="AZ26" s="1">
-        <v>16.437509</v>
+        <v>16.437508999999999</v>
       </c>
       <c r="BA26" s="1">
-        <v>1256.010000</v>
+        <v>1256.01</v>
       </c>
       <c r="BB26" s="1">
-        <v>-139.027000</v>
+        <v>-139.02699999999999</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>59186.035346</v>
+        <v>59186.035345999997</v>
       </c>
       <c r="BE26" s="1">
-        <v>16.440565</v>
+        <v>16.440564999999999</v>
       </c>
       <c r="BF26" s="1">
-        <v>1296.850000</v>
+        <v>1296.8499999999999</v>
       </c>
       <c r="BG26" s="1">
-        <v>-221.243000</v>
+        <v>-221.24299999999999</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
         <v>59197.430408</v>
@@ -6829,75 +7245,76 @@
         <v>16.443731</v>
       </c>
       <c r="BK26" s="1">
-        <v>1367.470000</v>
+        <v>1367.47</v>
       </c>
       <c r="BL26" s="1">
-        <v>-357.494000</v>
+        <v>-357.49400000000003</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>59209.403368</v>
+        <v>59209.403367999999</v>
       </c>
       <c r="BO26" s="1">
         <v>16.447056</v>
       </c>
       <c r="BP26" s="1">
-        <v>1483.100000</v>
+        <v>1483.1</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-578.604000</v>
+        <v>-578.60400000000004</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>59220.553401</v>
+        <v>59220.553400999997</v>
       </c>
       <c r="BT26" s="1">
-        <v>16.450154</v>
+        <v>16.450154000000001</v>
       </c>
       <c r="BU26" s="1">
-        <v>1617.030000</v>
+        <v>1617.03</v>
       </c>
       <c r="BV26" s="1">
-        <v>-827.222000</v>
+        <v>-827.22199999999998</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>59231.540811</v>
+        <v>59231.540810999999</v>
       </c>
       <c r="BY26" s="1">
-        <v>16.453206</v>
+        <v>16.453206000000002</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1770.120000</v>
+        <v>1770.12</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1096.910000</v>
+        <v>-1096.9100000000001</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
         <v>59244.850457</v>
       </c>
       <c r="CD26" s="1">
-        <v>16.456903</v>
+        <v>16.456903000000001</v>
       </c>
       <c r="CE26" s="1">
-        <v>2191.610000</v>
+        <v>2191.61</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1747.600000</v>
+        <v>-1747.6</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>